--- a/exports/corps.xlsx
+++ b/exports/corps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="212">
   <si>
     <t>Home Location</t>
   </si>
@@ -85,27 +85,90 @@
     <t>Days from Season Start</t>
   </si>
   <si>
+    <t>Letters in Name</t>
+  </si>
+  <si>
     <t>Latest Score</t>
   </si>
   <si>
     <t>Last Performance Date</t>
   </si>
   <si>
+    <t>Number of Shows</t>
+  </si>
+  <si>
+    <t>Average Rest</t>
+  </si>
+  <si>
+    <t>Average Score Improvement</t>
+  </si>
+  <si>
+    <t>Average of Last 3 Scores</t>
+  </si>
+  <si>
+    <t>Average Normal General Effect</t>
+  </si>
+  <si>
+    <t>Average Normal Visual</t>
+  </si>
+  <si>
+    <t>Average Normal Music</t>
+  </si>
+  <si>
+    <t>Average Normal Brass</t>
+  </si>
+  <si>
+    <t>Average Normal Percussion</t>
+  </si>
+  <si>
+    <t>Best Caption</t>
+  </si>
+  <si>
+    <t>Best Music</t>
+  </si>
+  <si>
+    <t>Rank of Last 3 Scores</t>
+  </si>
+  <si>
+    <t>Rank of Last Score</t>
+  </si>
+  <si>
+    <t>Rank of Last 3 Scores No All-Age</t>
+  </si>
+  <si>
+    <t>Rank of Last Score No All-Age</t>
+  </si>
+  <si>
+    <t>Ordinal Rank of Last 3 Scores</t>
+  </si>
+  <si>
+    <t>Ordinal Rank of Last Score</t>
+  </si>
+  <si>
+    <t>Ordinal Rank of Last 3 Scores No All-Age</t>
+  </si>
+  <si>
+    <t>Ordinal Rank of Last Score No All-Age</t>
+  </si>
+  <si>
+    <t>Projected Championship Round</t>
+  </si>
+  <si>
     <t>Corps</t>
   </si>
   <si>
     <t>Boston Crusaders</t>
   </si>
   <si>
+    <t>Blue Devils</t>
+  </si>
+  <si>
     <t>Carolina Crown</t>
   </si>
   <si>
     <t>Bluecoats</t>
   </si>
   <si>
-    <t>Blue Devils</t>
-  </si>
-  <si>
     <t>Phantom Regiment</t>
   </si>
   <si>
@@ -115,90 +178,93 @@
     <t>Santa Clara Vanguard</t>
   </si>
   <si>
+    <t>Colts</t>
+  </si>
+  <si>
     <t>The Cavaliers</t>
   </si>
   <si>
-    <t>Colts</t>
+    <t>Blue Stars</t>
   </si>
   <si>
     <t>Reading Buccaneers</t>
   </si>
   <si>
+    <t>Spirit of Atlanta</t>
+  </si>
+  <si>
     <t>Atlanta CV</t>
   </si>
   <si>
+    <t>Troopers</t>
+  </si>
+  <si>
+    <t>Cincinnati Tradition</t>
+  </si>
+  <si>
+    <t>Madison Scouts</t>
+  </si>
+  <si>
+    <t>Blue Knights</t>
+  </si>
+  <si>
+    <t>Bushwackers Drum Corps</t>
+  </si>
+  <si>
+    <t>Hawthorne Caballeros</t>
+  </si>
+  <si>
     <t>Crossmen</t>
   </si>
   <si>
-    <t>Blue Stars</t>
-  </si>
-  <si>
-    <t>Troopers</t>
-  </si>
-  <si>
-    <t>Cincinnati Tradition</t>
-  </si>
-  <si>
-    <t>Madison Scouts</t>
-  </si>
-  <si>
-    <t>Bushwackers Drum Corps</t>
-  </si>
-  <si>
-    <t>Hawthorne Caballeros</t>
-  </si>
-  <si>
-    <t>Blue Knights</t>
-  </si>
-  <si>
     <t>Rogues Hollow Regiment</t>
   </si>
   <si>
-    <t>Spirit of Atlanta</t>
-  </si>
-  <si>
     <t>Music City</t>
   </si>
   <si>
     <t>Pacific Crest</t>
   </si>
   <si>
+    <t>The Academy</t>
+  </si>
+  <si>
     <t>Govenaires</t>
   </si>
   <si>
     <t>Spartans</t>
   </si>
   <si>
-    <t>The Academy</t>
-  </si>
-  <si>
     <t>Blue Devils B</t>
   </si>
   <si>
     <t>Hurricanes</t>
   </si>
   <si>
+    <t>Fusion Core</t>
+  </si>
+  <si>
     <t>River City Rhythm</t>
   </si>
   <si>
-    <t>Fusion Core</t>
-  </si>
-  <si>
     <t>Gold</t>
   </si>
   <si>
+    <t>Columbians</t>
+  </si>
+  <si>
+    <t>Sunrisers</t>
+  </si>
+  <si>
     <t>Seattle Cascades</t>
   </si>
   <si>
-    <t>Columbians</t>
-  </si>
-  <si>
-    <t>Sunrisers</t>
-  </si>
-  <si>
     <t>Colt Cadets</t>
   </si>
   <si>
+    <t>Battalion</t>
+  </si>
+  <si>
     <t>Impulse</t>
   </si>
   <si>
@@ -247,15 +313,15 @@
     <t>Boston, MA</t>
   </si>
   <si>
+    <t>Concord, CA</t>
+  </si>
+  <si>
     <t>Fort Mill, SC</t>
   </si>
   <si>
     <t>Canton, OH</t>
   </si>
   <si>
-    <t>Concord, CA</t>
-  </si>
-  <si>
     <t>Rockford, IL</t>
   </si>
   <si>
@@ -265,10 +331,13 @@
     <t>Santa Clara, CA</t>
   </si>
   <si>
+    <t>Dubuque, IA</t>
+  </si>
+  <si>
     <t>Rosemont, IL</t>
   </si>
   <si>
-    <t>Dubuque, IA</t>
+    <t>La Crosse, WI</t>
   </si>
   <si>
     <t>Reading, PA</t>
@@ -277,30 +346,27 @@
     <t>Atlanta, GA</t>
   </si>
   <si>
+    <t>Casper, WY</t>
+  </si>
+  <si>
+    <t>Cincinnati, OH</t>
+  </si>
+  <si>
+    <t>Madison, WI</t>
+  </si>
+  <si>
+    <t>Denver, CO</t>
+  </si>
+  <si>
+    <t>Princeton, NJ</t>
+  </si>
+  <si>
+    <t>Hawthorne, NJ</t>
+  </si>
+  <si>
     <t>San Antonio, TX</t>
   </si>
   <si>
-    <t>La Crosse, WI</t>
-  </si>
-  <si>
-    <t>Casper, WY</t>
-  </si>
-  <si>
-    <t>Cincinnati, OH</t>
-  </si>
-  <si>
-    <t>Madison, WI</t>
-  </si>
-  <si>
-    <t>Princeton, NJ</t>
-  </si>
-  <si>
-    <t>Hawthorne, NJ</t>
-  </si>
-  <si>
-    <t>Denver, CO</t>
-  </si>
-  <si>
     <t>Doylestown, OH</t>
   </si>
   <si>
@@ -310,36 +376,36 @@
     <t>City of Industry, CA</t>
   </si>
   <si>
+    <t>Tempe, AZ</t>
+  </si>
+  <si>
     <t>St. Peter, MN</t>
   </si>
   <si>
     <t>Nashua, NH</t>
   </si>
   <si>
-    <t>Tempe, AZ</t>
-  </si>
-  <si>
     <t>Seymour, CT</t>
   </si>
   <si>
+    <t>Morris County, NJ</t>
+  </si>
+  <si>
     <t>Anoka, MN</t>
   </si>
   <si>
-    <t>Morris County, NJ</t>
-  </si>
-  <si>
     <t>San Diego, CA</t>
   </si>
   <si>
+    <t>Pasco, WA</t>
+  </si>
+  <si>
+    <t>Long Island, NY</t>
+  </si>
+  <si>
     <t>Seattle, WA</t>
   </si>
   <si>
-    <t>Pasco, WA</t>
-  </si>
-  <si>
-    <t>Long Island, NY</t>
-  </si>
-  <si>
     <t>Buena Park, CA</t>
   </si>
   <si>
@@ -394,37 +460,196 @@
     <t>DCI Open Class</t>
   </si>
   <si>
+    <t>Muscle Shoals, Alabama</t>
+  </si>
+  <si>
+    <t>Ogden, Utah</t>
+  </si>
+  <si>
+    <t>Sevierville, Tennessee</t>
+  </si>
+  <si>
+    <t>LaCrosse, Wisconsin</t>
+  </si>
+  <si>
+    <t>Dubuque, Iowa</t>
+  </si>
+  <si>
+    <t>Shelton, Connecticut</t>
+  </si>
+  <si>
     <t>Newnan, Georgia</t>
   </si>
   <si>
-    <t>Sevierville, Tennessee</t>
-  </si>
-  <si>
-    <t>LaCrosse, Wisconsin</t>
+    <t>Mason, OH</t>
+  </si>
+  <si>
+    <t>Mankto, Minnesota</t>
+  </si>
+  <si>
+    <t>Whitewater, Wisconsin</t>
   </si>
   <si>
     <t>Sacramento, California</t>
   </si>
   <si>
-    <t>Mankto, Minnesota</t>
-  </si>
-  <si>
-    <t>Boise, Idaho</t>
-  </si>
-  <si>
-    <t>Whitewater, Wisconsin</t>
-  </si>
-  <si>
-    <t>Shelton, Connecticut</t>
-  </si>
-  <si>
-    <t>Mason, OH</t>
-  </si>
-  <si>
     <t>Kennewick, Washington</t>
   </si>
   <si>
     <t>Stanford, California</t>
+  </si>
+  <si>
+    <t>General Effect</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t>Percussion</t>
+  </si>
+  <si>
+    <t>Brass</t>
+  </si>
+  <si>
+    <t>Neither</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>8th</t>
+  </si>
+  <si>
+    <t>9th</t>
+  </si>
+  <si>
+    <t>19th</t>
+  </si>
+  <si>
+    <t>15th</t>
+  </si>
+  <si>
+    <t>20th</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>16th</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>13th</t>
+  </si>
+  <si>
+    <t>10th</t>
+  </si>
+  <si>
+    <t>22nd</t>
+  </si>
+  <si>
+    <t>17th</t>
+  </si>
+  <si>
+    <t>12th</t>
+  </si>
+  <si>
+    <t>14th</t>
+  </si>
+  <si>
+    <t>11th</t>
+  </si>
+  <si>
+    <t>18th</t>
+  </si>
+  <si>
+    <t>21st</t>
+  </si>
+  <si>
+    <t>25th</t>
+  </si>
+  <si>
+    <t>24th</t>
+  </si>
+  <si>
+    <t>26th</t>
+  </si>
+  <si>
+    <t>28th</t>
+  </si>
+  <si>
+    <t>30th</t>
+  </si>
+  <si>
+    <t>23rd</t>
+  </si>
+  <si>
+    <t>27th</t>
+  </si>
+  <si>
+    <t>32nd</t>
+  </si>
+  <si>
+    <t>34th</t>
+  </si>
+  <si>
+    <t>29th</t>
+  </si>
+  <si>
+    <t>31st</t>
+  </si>
+  <si>
+    <t>33rd</t>
+  </si>
+  <si>
+    <t>36th</t>
+  </si>
+  <si>
+    <t>35th</t>
+  </si>
+  <si>
+    <t>38th</t>
+  </si>
+  <si>
+    <t>37th</t>
+  </si>
+  <si>
+    <t>40th</t>
+  </si>
+  <si>
+    <t>39th</t>
+  </si>
+  <si>
+    <t>41st</t>
+  </si>
+  <si>
+    <t>Finals</t>
+  </si>
+  <si>
+    <t>Semis</t>
+  </si>
+  <si>
+    <t>Prelims</t>
   </si>
 </sst>
 </file>
@@ -786,15 +1011,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z51"/>
+  <dimension ref="A1:AU52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:47">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -871,13 +1096,76 @@
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:47">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C2">
         <v>42.3554334</v>
@@ -886,176 +1174,302 @@
         <v>-71.06051100000001</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="H2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2">
+        <v>17.3</v>
+      </c>
+      <c r="K2">
+        <v>17.4</v>
+      </c>
+      <c r="L2">
+        <v>34.7</v>
+      </c>
+      <c r="M2">
+        <v>16.8</v>
+      </c>
+      <c r="N2">
+        <v>17.1</v>
+      </c>
+      <c r="O2">
+        <v>17.4</v>
+      </c>
+      <c r="P2">
+        <v>25.65</v>
+      </c>
+      <c r="Q2">
         <v>17</v>
       </c>
-      <c r="K2">
-        <v>17</v>
-      </c>
-      <c r="L2">
-        <v>34</v>
-      </c>
-      <c r="M2">
+      <c r="R2">
+        <v>17.5</v>
+      </c>
+      <c r="S2">
         <v>16.9</v>
       </c>
-      <c r="N2">
-        <v>16.7</v>
-      </c>
-      <c r="O2">
-        <v>17.1</v>
-      </c>
-      <c r="P2">
-        <v>25.35</v>
-      </c>
-      <c r="Q2">
-        <v>16.5</v>
-      </c>
-      <c r="R2">
-        <v>17.6</v>
-      </c>
-      <c r="S2">
-        <v>17</v>
-      </c>
       <c r="T2">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="U2">
-        <v>84.90000000000001</v>
+        <v>86.05</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>84.90000000000001</v>
+        <v>86.05</v>
       </c>
       <c r="X2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y2">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>45482</v>
+        <v>15</v>
+      </c>
+      <c r="Z2">
+        <v>86.05</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>45484</v>
+      </c>
+      <c r="AB2">
+        <v>6</v>
+      </c>
+      <c r="AC2">
+        <v>3</v>
+      </c>
+      <c r="AD2">
+        <v>2.609999999999999</v>
+      </c>
+      <c r="AE2">
+        <v>78.95</v>
+      </c>
+      <c r="AF2">
+        <v>0.7966666666666666</v>
+      </c>
+      <c r="AG2">
+        <v>0.7858333333333333</v>
+      </c>
+      <c r="AH2">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="AI2">
+        <v>0.7724999999999999</v>
+      </c>
+      <c r="AJ2">
+        <v>0.7866666666666667</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM2">
+        <v>3</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>3</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:47">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C3">
-        <v>35.0073697</v>
+        <v>37.9768525</v>
       </c>
       <c r="D3">
-        <v>-80.94507590000001</v>
+        <v>-122.0335624</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="H3" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J3">
         <v>16.6</v>
       </c>
       <c r="K3">
-        <v>16.7</v>
+        <v>17.1</v>
       </c>
       <c r="L3">
-        <v>33.3</v>
+        <v>33.7</v>
       </c>
       <c r="M3">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="N3">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="O3">
         <v>16.5</v>
       </c>
       <c r="P3">
-        <v>24.85</v>
+        <v>24.65</v>
       </c>
       <c r="Q3">
-        <v>16.2</v>
+        <v>17.1</v>
       </c>
       <c r="R3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S3">
-        <v>16.4</v>
+        <v>17.2</v>
       </c>
       <c r="T3">
-        <v>25.3</v>
+        <v>25.65</v>
       </c>
       <c r="U3">
-        <v>83.45</v>
+        <v>84</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>83.45</v>
+        <v>84</v>
       </c>
       <c r="X3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y3">
-        <v>83.45</v>
-      </c>
-      <c r="Z3" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z3">
+        <v>84</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>45483</v>
+      </c>
+      <c r="AB3">
+        <v>7</v>
+      </c>
+      <c r="AC3">
+        <v>2</v>
+      </c>
+      <c r="AD3">
+        <v>1.233333333333334</v>
+      </c>
+      <c r="AE3">
+        <v>79.85000000000001</v>
+      </c>
+      <c r="AF3">
+        <v>0.8014285714285716</v>
+      </c>
+      <c r="AG3">
+        <v>0.7919047619047619</v>
+      </c>
+      <c r="AH3">
+        <v>0.8011904761904761</v>
+      </c>
+      <c r="AI3">
+        <v>0.8007142857142856</v>
+      </c>
+      <c r="AJ3">
+        <v>0.8014285714285714</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM3">
+        <v>2</v>
+      </c>
+      <c r="AN3">
+        <v>2</v>
+      </c>
+      <c r="AO3">
+        <v>2</v>
+      </c>
+      <c r="AP3">
+        <v>2</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>35.0073697</v>
+      </c>
+      <c r="D4">
+        <v>-80.94507590000001</v>
+      </c>
+      <c r="E4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2">
         <v>45481</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4">
-        <v>40.7985464</v>
-      </c>
-      <c r="D4">
-        <v>-81.37495079999999</v>
-      </c>
-      <c r="E4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45480</v>
-      </c>
       <c r="H4" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="I4">
         <v>4</v>
@@ -1064,13 +1478,13 @@
         <v>16.6</v>
       </c>
       <c r="K4">
-        <v>17.3</v>
+        <v>16.7</v>
       </c>
       <c r="L4">
-        <v>33.9</v>
+        <v>33.3</v>
       </c>
       <c r="M4">
-        <v>16.4</v>
+        <v>16.7</v>
       </c>
       <c r="N4">
         <v>16.5</v>
@@ -1079,125 +1493,251 @@
         <v>16.5</v>
       </c>
       <c r="P4">
-        <v>24.7</v>
+        <v>24.85</v>
       </c>
       <c r="Q4">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="R4">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="S4">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="T4">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="U4">
-        <v>83.40000000000001</v>
+        <v>83.45</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>83.40000000000001</v>
+        <v>83.45</v>
       </c>
       <c r="X4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y4">
-        <v>83.40000000000001</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>45480</v>
+        <v>13</v>
+      </c>
+      <c r="Z4">
+        <v>83.45</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>45481</v>
+      </c>
+      <c r="AB4">
+        <v>4</v>
+      </c>
+      <c r="AC4">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="AD4">
+        <v>2.849999999999999</v>
+      </c>
+      <c r="AE4">
+        <v>78.34999999999999</v>
+      </c>
+      <c r="AF4">
+        <v>0.7899999999999999</v>
+      </c>
+      <c r="AG4">
+        <v>0.77625</v>
+      </c>
+      <c r="AH4">
+        <v>0.7820833333333332</v>
+      </c>
+      <c r="AI4">
+        <v>0.7762500000000001</v>
+      </c>
+      <c r="AJ4">
+        <v>0.76875</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM4">
+        <v>4</v>
+      </c>
+      <c r="AN4">
+        <v>3</v>
+      </c>
+      <c r="AO4">
+        <v>4</v>
+      </c>
+      <c r="AP4">
+        <v>3</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:47">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C5">
-        <v>37.9768525</v>
+        <v>40.7985464</v>
       </c>
       <c r="D5">
-        <v>-122.0335624</v>
+        <v>-81.37495079999999</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2">
         <v>45480</v>
       </c>
       <c r="H5" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5">
+        <v>16.6</v>
+      </c>
+      <c r="K5">
+        <v>17.3</v>
+      </c>
+      <c r="L5">
+        <v>33.9</v>
+      </c>
+      <c r="M5">
+        <v>16.4</v>
+      </c>
+      <c r="N5">
         <v>16.5</v>
       </c>
-      <c r="K5">
-        <v>16.4</v>
-      </c>
-      <c r="L5">
-        <v>32.9</v>
-      </c>
-      <c r="M5">
-        <v>16.2</v>
-      </c>
-      <c r="N5">
-        <v>16.8</v>
-      </c>
       <c r="O5">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="P5">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q5">
         <v>16.5</v>
       </c>
       <c r="R5">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="S5">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="T5">
-        <v>24.65</v>
+        <v>24.8</v>
       </c>
       <c r="U5">
-        <v>82.05</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>82.05</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="X5">
         <v>11</v>
       </c>
       <c r="Y5">
-        <v>82.05</v>
-      </c>
-      <c r="Z5" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z5">
+        <v>83.40000000000001</v>
+      </c>
+      <c r="AA5" s="2">
         <v>45480</v>
       </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>2.5</v>
+      </c>
+      <c r="AD5">
+        <v>2.325000000000003</v>
+      </c>
+      <c r="AE5">
+        <v>81.35000000000001</v>
+      </c>
+      <c r="AF5">
+        <v>0.8258333333333333</v>
+      </c>
+      <c r="AG5">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="AH5">
+        <v>0.805</v>
+      </c>
+      <c r="AI5">
+        <v>0.795</v>
+      </c>
+      <c r="AJ5">
+        <v>0.8116666666666668</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>4</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>4</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>209</v>
+      </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:47">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C6">
         <v>42.2713945</v>
@@ -1206,78 +1746,141 @@
         <v>-89.09396599999999</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="H6" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
       <c r="J6">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="K6">
+        <v>16.6</v>
+      </c>
+      <c r="L6">
+        <v>33</v>
+      </c>
+      <c r="M6">
+        <v>16.5</v>
+      </c>
+      <c r="N6">
+        <v>16.7</v>
+      </c>
+      <c r="O6">
+        <v>16.8</v>
+      </c>
+      <c r="P6">
+        <v>25</v>
+      </c>
+      <c r="Q6">
+        <v>16.6</v>
+      </c>
+      <c r="R6">
         <v>16.4</v>
       </c>
-      <c r="L6">
-        <v>32.7</v>
-      </c>
-      <c r="M6">
-        <v>16.1</v>
-      </c>
-      <c r="N6">
-        <v>16.6</v>
-      </c>
-      <c r="O6">
-        <v>16.5</v>
-      </c>
-      <c r="P6">
-        <v>24.6</v>
-      </c>
-      <c r="Q6">
-        <v>15.8</v>
-      </c>
-      <c r="R6">
-        <v>16.3</v>
-      </c>
       <c r="S6">
-        <v>16.1</v>
+        <v>16.8</v>
       </c>
       <c r="T6">
-        <v>24.1</v>
+        <v>24.9</v>
       </c>
       <c r="U6">
-        <v>81.40000000000001</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>81.40000000000001</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="X6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y6">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>45482</v>
+        <v>15</v>
+      </c>
+      <c r="Z6">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>45484</v>
+      </c>
+      <c r="AB6">
+        <v>9</v>
+      </c>
+      <c r="AC6">
+        <v>1.875</v>
+      </c>
+      <c r="AD6">
+        <v>1.59375</v>
+      </c>
+      <c r="AE6">
+        <v>77.03333333333333</v>
+      </c>
+      <c r="AF6">
+        <v>0.7766666666666666</v>
+      </c>
+      <c r="AG6">
+        <v>0.7674074074074074</v>
+      </c>
+      <c r="AH6">
+        <v>0.7648148148148147</v>
+      </c>
+      <c r="AI6">
+        <v>0.7566666666666666</v>
+      </c>
+      <c r="AJ6">
+        <v>0.7672222222222224</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM6">
+        <v>5</v>
+      </c>
+      <c r="AN6">
+        <v>5</v>
+      </c>
+      <c r="AO6">
+        <v>5</v>
+      </c>
+      <c r="AP6">
+        <v>5</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:47">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C7">
         <v>38.5810606</v>
@@ -1286,78 +1889,141 @@
         <v>-121.493895</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F7">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2">
-        <v>45482</v>
+        <v>45483</v>
       </c>
       <c r="H7" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J7">
+        <v>15.8</v>
+      </c>
+      <c r="K7">
+        <v>16.2</v>
+      </c>
+      <c r="L7">
+        <v>32</v>
+      </c>
+      <c r="M7">
+        <v>16</v>
+      </c>
+      <c r="N7">
+        <v>15.7</v>
+      </c>
+      <c r="O7">
+        <v>15.8</v>
+      </c>
+      <c r="P7">
+        <v>23.75</v>
+      </c>
+      <c r="Q7">
+        <v>16.2</v>
+      </c>
+      <c r="R7">
         <v>16.3</v>
       </c>
-      <c r="K7">
-        <v>16.1</v>
-      </c>
-      <c r="L7">
-        <v>32.4</v>
-      </c>
-      <c r="M7">
-        <v>15.9</v>
-      </c>
-      <c r="N7">
-        <v>16.3</v>
-      </c>
-      <c r="O7">
-        <v>16</v>
-      </c>
-      <c r="P7">
-        <v>24.1</v>
-      </c>
-      <c r="Q7">
-        <v>16.5</v>
-      </c>
-      <c r="R7">
-        <v>15.9</v>
-      </c>
       <c r="S7">
-        <v>14.6</v>
+        <v>15.8</v>
       </c>
       <c r="T7">
-        <v>23.5</v>
+        <v>24.15</v>
       </c>
       <c r="U7">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="X7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y7">
-        <v>80</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>45482</v>
+        <v>9</v>
+      </c>
+      <c r="Z7">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>45483</v>
+      </c>
+      <c r="AB7">
+        <v>8</v>
+      </c>
+      <c r="AC7">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="AD7">
+        <v>1.178571428571429</v>
+      </c>
+      <c r="AE7">
+        <v>75.91875</v>
+      </c>
+      <c r="AF7">
+        <v>0.7640625</v>
+      </c>
+      <c r="AG7">
+        <v>0.7591666666666667</v>
+      </c>
+      <c r="AH7">
+        <v>0.7527083333333333</v>
+      </c>
+      <c r="AI7">
+        <v>0.76375</v>
+      </c>
+      <c r="AJ7">
+        <v>0.740625</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM7">
+        <v>8</v>
+      </c>
+      <c r="AN7">
+        <v>6</v>
+      </c>
+      <c r="AO7">
+        <v>6</v>
+      </c>
+      <c r="AP7">
+        <v>6</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:47">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C8">
         <v>37.2333253</v>
@@ -1366,558 +2032,957 @@
         <v>-121.6846349</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F8">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G8" s="2">
-        <v>45480</v>
+        <v>45483</v>
       </c>
       <c r="H8" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>15.4</v>
+        <v>15.9</v>
       </c>
       <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>31.9</v>
+      </c>
+      <c r="M8">
         <v>15.8</v>
       </c>
-      <c r="L8">
-        <v>31.2</v>
-      </c>
-      <c r="M8">
+      <c r="N8">
         <v>15.6</v>
       </c>
-      <c r="N8">
-        <v>15.4</v>
-      </c>
       <c r="O8">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="P8">
-        <v>22.75</v>
+        <v>23.45</v>
       </c>
       <c r="Q8">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="R8">
-        <v>15.3</v>
+        <v>16.1</v>
       </c>
       <c r="S8">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="T8">
-        <v>23.55</v>
+        <v>24.3</v>
       </c>
       <c r="U8">
-        <v>77.5</v>
+        <v>79.65000000000001</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>77.5</v>
+        <v>79.65000000000001</v>
       </c>
       <c r="X8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Y8">
-        <v>77.5</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>45480</v>
+        <v>18</v>
+      </c>
+      <c r="Z8">
+        <v>79.65000000000001</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>45483</v>
+      </c>
+      <c r="AB8">
+        <v>7</v>
+      </c>
+      <c r="AC8">
+        <v>2</v>
+      </c>
+      <c r="AD8">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="AE8">
+        <v>75.38571428571429</v>
+      </c>
+      <c r="AF8">
+        <v>0.75</v>
+      </c>
+      <c r="AG8">
+        <v>0.7454761904761903</v>
+      </c>
+      <c r="AH8">
+        <v>0.7673809523809525</v>
+      </c>
+      <c r="AI8">
+        <v>0.7521428571428572</v>
+      </c>
+      <c r="AJ8">
+        <v>0.7921428571428571</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM8">
+        <v>9</v>
+      </c>
+      <c r="AN8">
+        <v>7</v>
+      </c>
+      <c r="AO8">
+        <v>7</v>
+      </c>
+      <c r="AP8">
+        <v>7</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:47">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C9">
-        <v>41.9941334</v>
+        <v>42.5006243</v>
       </c>
       <c r="D9">
-        <v>-87.87567369999999</v>
+        <v>-90.6647985</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2">
-        <v>45479</v>
+        <v>45484</v>
       </c>
       <c r="H9" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="K9">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="L9">
-        <v>30.6</v>
+        <v>30.9</v>
       </c>
       <c r="M9">
         <v>15.5</v>
       </c>
       <c r="N9">
+        <v>16</v>
+      </c>
+      <c r="O9">
+        <v>15.3</v>
+      </c>
+      <c r="P9">
+        <v>23.4</v>
+      </c>
+      <c r="Q9">
         <v>15.5</v>
       </c>
-      <c r="O9">
-        <v>15.4</v>
-      </c>
-      <c r="P9">
-        <v>23.2</v>
-      </c>
-      <c r="Q9">
-        <v>14.9</v>
-      </c>
       <c r="R9">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="S9">
         <v>16.4</v>
       </c>
       <c r="T9">
-        <v>23.35</v>
+        <v>23.8</v>
       </c>
       <c r="U9">
-        <v>77.15000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>77.15000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="X9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y9">
-        <v>77.15000000000001</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>45479</v>
+        <v>5</v>
+      </c>
+      <c r="Z9">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>45484</v>
+      </c>
+      <c r="AB9">
+        <v>9</v>
+      </c>
+      <c r="AC9">
+        <v>1.875</v>
+      </c>
+      <c r="AD9">
+        <v>1.587499999999999</v>
+      </c>
+      <c r="AE9">
+        <v>72.3888888888889</v>
+      </c>
+      <c r="AF9">
+        <v>0.7275000000000001</v>
+      </c>
+      <c r="AG9">
+        <v>0.7212962962962964</v>
+      </c>
+      <c r="AH9">
+        <v>0.7216666666666666</v>
+      </c>
+      <c r="AI9">
+        <v>0.7088888888888889</v>
+      </c>
+      <c r="AJ9">
+        <v>0.736111111111111</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM9">
+        <v>19</v>
+      </c>
+      <c r="AN9">
+        <v>9</v>
+      </c>
+      <c r="AO9">
+        <v>13</v>
+      </c>
+      <c r="AP9">
+        <v>9</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:47">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C10">
-        <v>42.5006243</v>
+        <v>41.9941334</v>
       </c>
       <c r="D10">
-        <v>-90.6647985</v>
+        <v>-87.87567369999999</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F10">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G10" s="2">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="H10" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
       <c r="J10">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="K10">
-        <v>15.1</v>
+        <v>15.8</v>
       </c>
       <c r="L10">
-        <v>30.8</v>
+        <v>31.2</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="N10">
+        <v>15.9</v>
+      </c>
+      <c r="O10">
+        <v>15.4</v>
+      </c>
+      <c r="P10">
+        <v>23.35</v>
+      </c>
+      <c r="Q10">
+        <v>15.8</v>
+      </c>
+      <c r="R10">
+        <v>15.3</v>
+      </c>
+      <c r="S10">
         <v>16</v>
       </c>
-      <c r="O10">
-        <v>15.6</v>
-      </c>
-      <c r="P10">
-        <v>23.3</v>
-      </c>
-      <c r="Q10">
-        <v>14.7</v>
-      </c>
-      <c r="R10">
-        <v>15.5</v>
-      </c>
-      <c r="S10">
-        <v>15.5</v>
-      </c>
       <c r="T10">
-        <v>22.85</v>
+        <v>23.55</v>
       </c>
       <c r="U10">
-        <v>76.95</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>76.95</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="X10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y10">
-        <v>76.95</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>45482</v>
+        <v>12</v>
+      </c>
+      <c r="Z10">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>45484</v>
+      </c>
+      <c r="AB10">
+        <v>7</v>
+      </c>
+      <c r="AC10">
+        <v>2.5</v>
+      </c>
+      <c r="AD10">
+        <v>1.641666666666666</v>
+      </c>
+      <c r="AE10">
+        <v>73.62857142857142</v>
+      </c>
+      <c r="AF10">
+        <v>0.7364285714285714</v>
+      </c>
+      <c r="AG10">
+        <v>0.7295238095238095</v>
+      </c>
+      <c r="AH10">
+        <v>0.7428571428571428</v>
+      </c>
+      <c r="AI10">
+        <v>0.7285714285714286</v>
+      </c>
+      <c r="AJ10">
+        <v>0.7628571428571429</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM10">
+        <v>15</v>
+      </c>
+      <c r="AN10">
+        <v>9</v>
+      </c>
+      <c r="AO10">
+        <v>10</v>
+      </c>
+      <c r="AP10">
+        <v>9</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:47">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C11">
-        <v>40.335345</v>
+        <v>43.8122836</v>
       </c>
       <c r="D11">
-        <v>-75.9279495</v>
+        <v>-91.2514355</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G11" s="2">
-        <v>45472</v>
+        <v>45484</v>
       </c>
       <c r="H11" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="K11">
         <v>15.5</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>30.6</v>
       </c>
       <c r="M11">
+        <v>16.1</v>
+      </c>
+      <c r="N11">
+        <v>15.6</v>
+      </c>
+      <c r="O11">
         <v>15.5</v>
       </c>
-      <c r="N11">
-        <v>14.1</v>
-      </c>
-      <c r="O11">
-        <v>14.9</v>
-      </c>
       <c r="P11">
-        <v>22.25</v>
+        <v>23.6</v>
       </c>
       <c r="Q11">
-        <v>15.7</v>
+        <v>16.2</v>
       </c>
       <c r="R11">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="S11">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="T11">
-        <v>23.7</v>
+        <v>23.85</v>
       </c>
       <c r="U11">
-        <v>76.95</v>
+        <v>78.05</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>76.95</v>
+        <v>78.05</v>
       </c>
       <c r="X11">
+        <v>15</v>
+      </c>
+      <c r="Y11">
+        <v>9</v>
+      </c>
+      <c r="Z11">
+        <v>78.05</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>45484</v>
+      </c>
+      <c r="AB11">
+        <v>8</v>
+      </c>
+      <c r="AC11">
+        <v>2.142857142857143</v>
+      </c>
+      <c r="AD11">
+        <v>1.628571428571427</v>
+      </c>
+      <c r="AE11">
+        <v>71.66250000000001</v>
+      </c>
+      <c r="AF11">
+        <v>0.7146874999999999</v>
+      </c>
+      <c r="AG11">
+        <v>0.7204166666666666</v>
+      </c>
+      <c r="AH11">
+        <v>0.7154166666666666</v>
+      </c>
+      <c r="AI11">
+        <v>0.7168750000000002</v>
+      </c>
+      <c r="AJ11">
+        <v>0.7125</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM11">
+        <v>20</v>
+      </c>
+      <c r="AN11">
+        <v>10</v>
+      </c>
+      <c r="AO11">
+        <v>14</v>
+      </c>
+      <c r="AP11">
+        <v>10</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12">
+        <v>40.335345</v>
+      </c>
+      <c r="D12">
+        <v>-75.9279495</v>
+      </c>
+      <c r="E12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45472</v>
+      </c>
+      <c r="H12" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12">
         <v>3</v>
-      </c>
-      <c r="Y11">
-        <v>76.95</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>45472</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12">
-        <v>33.7489924</v>
-      </c>
-      <c r="D12">
-        <v>-84.39026440000001</v>
-      </c>
-      <c r="E12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12">
-        <v>23</v>
-      </c>
-      <c r="G12" s="2">
-        <v>45482</v>
-      </c>
-      <c r="H12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
       </c>
       <c r="J12">
         <v>15.5</v>
       </c>
       <c r="K12">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="L12">
-        <v>30.5</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="N12">
-        <v>15.3</v>
+        <v>14.1</v>
       </c>
       <c r="O12">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="P12">
-        <v>23.15</v>
+        <v>22.25</v>
       </c>
       <c r="Q12">
+        <v>15.7</v>
+      </c>
+      <c r="R12">
         <v>16.2</v>
       </c>
-      <c r="R12">
-        <v>15.4</v>
-      </c>
       <c r="S12">
-        <v>14.4</v>
+        <v>15.5</v>
       </c>
       <c r="T12">
-        <v>23</v>
+        <v>23.7</v>
       </c>
       <c r="U12">
-        <v>76.65000000000001</v>
+        <v>76.95</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
-        <v>76.65000000000001</v>
+        <v>76.95</v>
       </c>
       <c r="X12">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Y12">
-        <v>76.65000000000001</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>45482</v>
+        <v>17</v>
+      </c>
+      <c r="Z12">
+        <v>76.95</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>45472</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>76.95</v>
+      </c>
+      <c r="AF12">
+        <v>0.775</v>
+      </c>
+      <c r="AG12">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="AH12">
+        <v>0.7899999999999999</v>
+      </c>
+      <c r="AI12">
+        <v>0.7849999999999999</v>
+      </c>
+      <c r="AJ12">
+        <v>0.775</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM12">
+        <v>6</v>
+      </c>
+      <c r="AN12">
+        <v>11</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>178</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:47">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C13">
-        <v>29.4246002</v>
+        <v>33.7489924</v>
       </c>
       <c r="D13">
-        <v>-98.49514050000001</v>
+        <v>-84.39026440000001</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F13">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G13" s="2">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="H13" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
       <c r="J13">
+        <v>15.6</v>
+      </c>
+      <c r="K13">
+        <v>15.7</v>
+      </c>
+      <c r="L13">
+        <v>31.3</v>
+      </c>
+      <c r="M13">
+        <v>14.9</v>
+      </c>
+      <c r="N13">
         <v>15.4</v>
       </c>
-      <c r="K13">
-        <v>15.5</v>
-      </c>
-      <c r="L13">
-        <v>30.9</v>
-      </c>
-      <c r="M13">
+      <c r="O13">
         <v>15</v>
       </c>
-      <c r="N13">
-        <v>15</v>
-      </c>
-      <c r="O13">
-        <v>14.7</v>
-      </c>
       <c r="P13">
-        <v>22.35</v>
+        <v>22.65</v>
       </c>
       <c r="Q13">
         <v>14.7</v>
       </c>
       <c r="R13">
-        <v>14.7</v>
+        <v>15.5</v>
       </c>
       <c r="S13">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="T13">
         <v>22.75</v>
       </c>
       <c r="U13">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="X13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y13">
-        <v>76</v>
-      </c>
-      <c r="Z13" s="2">
+        <v>15</v>
+      </c>
+      <c r="Z13">
+        <v>76.7</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>45484</v>
+      </c>
+      <c r="AB13">
+        <v>3</v>
+      </c>
+      <c r="AC13">
+        <v>1.5</v>
+      </c>
+      <c r="AD13">
+        <v>2.75</v>
+      </c>
+      <c r="AE13">
+        <v>73.36666666666667</v>
+      </c>
+      <c r="AF13">
+        <v>0.7424999999999999</v>
+      </c>
+      <c r="AG13">
+        <v>0.7299999999999999</v>
+      </c>
+      <c r="AH13">
+        <v>0.7255555555555555</v>
+      </c>
+      <c r="AI13">
+        <v>0.7233333333333334</v>
+      </c>
+      <c r="AJ13">
+        <v>0.7516666666666667</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM13">
+        <v>16</v>
+      </c>
+      <c r="AN13">
+        <v>12</v>
+      </c>
+      <c r="AO13">
+        <v>11</v>
+      </c>
+      <c r="AP13">
+        <v>11</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>185</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14">
+        <v>33.7489924</v>
+      </c>
+      <c r="D14">
+        <v>-84.39026440000001</v>
+      </c>
+      <c r="E14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2">
         <v>45482</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14">
-        <v>43.8122836</v>
-      </c>
-      <c r="D14">
-        <v>-91.2514355</v>
-      </c>
-      <c r="E14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14">
-        <v>17</v>
-      </c>
-      <c r="G14" s="2">
-        <v>45480</v>
-      </c>
       <c r="H14" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>14.7</v>
+        <v>15.5</v>
       </c>
       <c r="K14">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="L14">
-        <v>29.9</v>
+        <v>30.5</v>
       </c>
       <c r="M14">
-        <v>15.1</v>
+        <v>15.8</v>
       </c>
       <c r="N14">
         <v>15.3</v>
       </c>
       <c r="O14">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="P14">
-        <v>22.85</v>
+        <v>23.15</v>
       </c>
       <c r="Q14">
-        <v>15.3</v>
+        <v>16.2</v>
       </c>
       <c r="R14">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="S14">
-        <v>15.3</v>
+        <v>14.4</v>
       </c>
       <c r="T14">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="U14">
-        <v>75.55</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14">
-        <v>75.55</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="X14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y14">
-        <v>75.55</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>45480</v>
+        <v>9</v>
+      </c>
+      <c r="Z14">
+        <v>76.65000000000001</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>45482</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>76.65000000000001</v>
+      </c>
+      <c r="AF14">
+        <v>0.7625</v>
+      </c>
+      <c r="AG14">
+        <v>0.7716666666666666</v>
+      </c>
+      <c r="AH14">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="AI14">
+        <v>0.8099999999999999</v>
+      </c>
+      <c r="AJ14">
+        <v>0.72</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM14">
+        <v>7</v>
+      </c>
+      <c r="AN14">
+        <v>14</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:47">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C15">
         <v>42.8501191</v>
@@ -1926,78 +2991,141 @@
         <v>-106.325138</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F15">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G15" s="2">
-        <v>45482</v>
+        <v>45483</v>
       </c>
       <c r="H15" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J15">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="K15">
         <v>15.2</v>
       </c>
       <c r="L15">
-        <v>30.2</v>
+        <v>30.5</v>
       </c>
       <c r="M15">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="N15">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="O15">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="P15">
-        <v>22.35</v>
+        <v>22.3</v>
       </c>
       <c r="Q15">
         <v>15.8</v>
       </c>
       <c r="R15">
-        <v>15</v>
+        <v>15.6</v>
       </c>
       <c r="S15">
-        <v>14.5</v>
+        <v>16.3</v>
       </c>
       <c r="T15">
-        <v>22.65</v>
+        <v>23.85</v>
       </c>
       <c r="U15">
-        <v>75.2</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>75.2</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="X15">
+        <v>14</v>
+      </c>
+      <c r="Y15">
+        <v>8</v>
+      </c>
+      <c r="Z15">
+        <v>76.65000000000001</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>45483</v>
+      </c>
+      <c r="AB15">
+        <v>5</v>
+      </c>
+      <c r="AC15">
+        <v>1.25</v>
+      </c>
+      <c r="AD15">
+        <v>1.300000000000001</v>
+      </c>
+      <c r="AE15">
+        <v>74.39000000000001</v>
+      </c>
+      <c r="AF15">
+        <v>0.7445000000000001</v>
+      </c>
+      <c r="AG15">
+        <v>0.731</v>
+      </c>
+      <c r="AH15">
+        <v>0.756</v>
+      </c>
+      <c r="AI15">
+        <v>0.7659999999999999</v>
+      </c>
+      <c r="AJ15">
+        <v>0.7589999999999999</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM15">
         <v>13</v>
       </c>
-      <c r="Y15">
-        <v>75.2</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>45482</v>
+      <c r="AN15">
+        <v>14</v>
+      </c>
+      <c r="AO15">
+        <v>9</v>
+      </c>
+      <c r="AP15">
+        <v>12</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>185</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:47">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C16">
         <v>39.1014537</v>
@@ -2006,7 +3134,7 @@
         <v>-84.51246020000001</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="F16">
         <v>9</v>
@@ -2015,7 +3143,7 @@
         <v>45475</v>
       </c>
       <c r="H16" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -2066,18 +3194,60 @@
         <v>6</v>
       </c>
       <c r="Y16">
+        <v>19</v>
+      </c>
+      <c r="Z16">
         <v>74.95</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="AA16" s="2">
         <v>45475</v>
       </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>74.95</v>
+      </c>
+      <c r="AF16">
+        <v>0.75</v>
+      </c>
+      <c r="AG16">
+        <v>0.75</v>
+      </c>
+      <c r="AH16">
+        <v>0.7483333333333333</v>
+      </c>
+      <c r="AI16">
+        <v>0.755</v>
+      </c>
+      <c r="AJ16">
+        <v>0.745</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM16">
+        <v>10</v>
+      </c>
+      <c r="AN16">
+        <v>16</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>182</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:47">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C17">
         <v>43.074761</v>
@@ -2086,7 +3256,7 @@
         <v>-89.3837613</v>
       </c>
       <c r="E17" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F17">
         <v>22</v>
@@ -2095,7 +3265,7 @@
         <v>45482</v>
       </c>
       <c r="H17" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2146,107 +3316,233 @@
         <v>13</v>
       </c>
       <c r="Y17">
+        <v>13</v>
+      </c>
+      <c r="Z17">
         <v>74.95</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="AA17" s="2">
         <v>45482</v>
       </c>
+      <c r="AB17">
+        <v>7</v>
+      </c>
+      <c r="AC17">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AD17">
+        <v>1.516666666666668</v>
+      </c>
+      <c r="AE17">
+        <v>70.77142857142856</v>
+      </c>
+      <c r="AF17">
+        <v>0.7146428571428571</v>
+      </c>
+      <c r="AG17">
+        <v>0.7052380952380951</v>
+      </c>
+      <c r="AH17">
+        <v>0.7009523809523811</v>
+      </c>
+      <c r="AI17">
+        <v>0.7</v>
+      </c>
+      <c r="AJ17">
+        <v>0.7</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM17">
+        <v>22</v>
+      </c>
+      <c r="AN17">
+        <v>16</v>
+      </c>
+      <c r="AO17">
+        <v>16</v>
+      </c>
+      <c r="AP17">
+        <v>13</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>179</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>179</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>181</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>210</v>
+      </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:47">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C18">
-        <v>40.3496953</v>
+        <v>39.7392364</v>
       </c>
       <c r="D18">
-        <v>-74.6597376</v>
+        <v>-104.984862</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G18" s="2">
-        <v>45472</v>
+        <v>45483</v>
       </c>
       <c r="H18" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J18">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="K18">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="L18">
-        <v>29.5</v>
+        <v>29.9</v>
       </c>
       <c r="M18">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="N18">
-        <v>13.8</v>
+        <v>15</v>
       </c>
       <c r="O18">
+        <v>14.2</v>
+      </c>
+      <c r="P18">
+        <v>22.1</v>
+      </c>
+      <c r="Q18">
         <v>14.6</v>
       </c>
-      <c r="P18">
-        <v>21.75</v>
-      </c>
-      <c r="Q18">
+      <c r="R18">
         <v>15.3</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>15.5</v>
       </c>
-      <c r="S18">
-        <v>15.6</v>
-      </c>
       <c r="T18">
-        <v>23.2</v>
+        <v>22.7</v>
       </c>
       <c r="U18">
-        <v>74.45</v>
+        <v>74.7</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18">
-        <v>74.45</v>
+        <v>74.7</v>
       </c>
       <c r="X18">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Y18">
-        <v>74.45</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>45472</v>
+        <v>11</v>
+      </c>
+      <c r="Z18">
+        <v>74.7</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>45483</v>
+      </c>
+      <c r="AB18">
+        <v>5</v>
+      </c>
+      <c r="AC18">
+        <v>1.25</v>
+      </c>
+      <c r="AD18">
+        <v>1.275000000000002</v>
+      </c>
+      <c r="AE18">
+        <v>72.89</v>
+      </c>
+      <c r="AF18">
+        <v>0.7314999999999999</v>
+      </c>
+      <c r="AG18">
+        <v>0.7336666666666666</v>
+      </c>
+      <c r="AH18">
+        <v>0.7206666666666667</v>
+      </c>
+      <c r="AI18">
+        <v>0.719</v>
+      </c>
+      <c r="AJ18">
+        <v>0.7190000000000001</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM18">
+        <v>17</v>
+      </c>
+      <c r="AN18">
+        <v>17</v>
+      </c>
+      <c r="AO18">
+        <v>12</v>
+      </c>
+      <c r="AP18">
+        <v>14</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:47">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C19">
-        <v>40.9492649</v>
+        <v>40.3496953</v>
       </c>
       <c r="D19">
-        <v>-74.1537549</v>
+        <v>-74.6597376</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -2255,309 +3551,498 @@
         <v>45472</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="K19">
+        <v>14.7</v>
+      </c>
+      <c r="L19">
+        <v>29.5</v>
+      </c>
+      <c r="M19">
         <v>15.1</v>
       </c>
-      <c r="L19">
-        <v>30.3</v>
-      </c>
-      <c r="M19">
-        <v>14.7</v>
-      </c>
       <c r="N19">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="O19">
-        <v>14.3</v>
+        <v>14.6</v>
       </c>
       <c r="P19">
-        <v>21.3</v>
+        <v>21.75</v>
       </c>
       <c r="Q19">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
       <c r="R19">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="S19">
-        <v>14.7</v>
+        <v>15.6</v>
       </c>
       <c r="T19">
-        <v>22.7</v>
+        <v>23.2</v>
       </c>
       <c r="U19">
-        <v>74.3</v>
+        <v>74.45</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
-        <v>74.3</v>
+        <v>74.45</v>
       </c>
       <c r="X19">
         <v>3</v>
       </c>
       <c r="Y19">
+        <v>20</v>
+      </c>
+      <c r="Z19">
+        <v>74.45</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>45472</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>74.45</v>
+      </c>
+      <c r="AF19">
+        <v>0.7375</v>
+      </c>
+      <c r="AG19">
+        <v>0.725</v>
+      </c>
+      <c r="AH19">
+        <v>0.7733333333333333</v>
+      </c>
+      <c r="AI19">
+        <v>0.765</v>
+      </c>
+      <c r="AJ19">
+        <v>0.78</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM19">
+        <v>12</v>
+      </c>
+      <c r="AN19">
+        <v>18</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>185</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47">
+      <c r="A20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20">
+        <v>40.9492649</v>
+      </c>
+      <c r="D20">
+        <v>-74.1537549</v>
+      </c>
+      <c r="E20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>45472</v>
+      </c>
+      <c r="H20" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>15.2</v>
+      </c>
+      <c r="K20">
+        <v>15.1</v>
+      </c>
+      <c r="L20">
+        <v>30.3</v>
+      </c>
+      <c r="M20">
+        <v>14.7</v>
+      </c>
+      <c r="N20">
+        <v>13.6</v>
+      </c>
+      <c r="O20">
+        <v>14.3</v>
+      </c>
+      <c r="P20">
+        <v>21.3</v>
+      </c>
+      <c r="Q20">
+        <v>14.9</v>
+      </c>
+      <c r="R20">
+        <v>15.8</v>
+      </c>
+      <c r="S20">
+        <v>14.7</v>
+      </c>
+      <c r="T20">
+        <v>22.7</v>
+      </c>
+      <c r="U20">
         <v>74.3</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>45472</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20">
-        <v>39.7392364</v>
-      </c>
-      <c r="D20">
-        <v>-104.984862</v>
-      </c>
-      <c r="E20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20">
-        <v>21</v>
-      </c>
-      <c r="G20" s="2">
-        <v>45482</v>
-      </c>
-      <c r="H20" t="s">
-        <v>131</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>14.9</v>
-      </c>
-      <c r="K20">
-        <v>14.9</v>
-      </c>
-      <c r="L20">
-        <v>29.8</v>
-      </c>
-      <c r="M20">
-        <v>14.6</v>
-      </c>
-      <c r="N20">
-        <v>15.3</v>
-      </c>
-      <c r="O20">
-        <v>14.1</v>
-      </c>
-      <c r="P20">
-        <v>22</v>
-      </c>
-      <c r="Q20">
-        <v>15</v>
-      </c>
-      <c r="R20">
-        <v>14.8</v>
-      </c>
-      <c r="S20">
-        <v>13.6</v>
-      </c>
-      <c r="T20">
-        <v>21.7</v>
-      </c>
-      <c r="U20">
-        <v>73.5</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20">
-        <v>73.5</v>
+        <v>74.3</v>
       </c>
       <c r="X20">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Y20">
-        <v>73.5</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>45482</v>
+        <v>19</v>
+      </c>
+      <c r="Z20">
+        <v>74.3</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>45472</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>74.3</v>
+      </c>
+      <c r="AF20">
+        <v>0.7575000000000001</v>
+      </c>
+      <c r="AG20">
+        <v>0.7100000000000001</v>
+      </c>
+      <c r="AH20">
+        <v>0.7566666666666666</v>
+      </c>
+      <c r="AI20">
+        <v>0.745</v>
+      </c>
+      <c r="AJ20">
+        <v>0.735</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM20">
+        <v>14</v>
+      </c>
+      <c r="AN20">
+        <v>19</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:47">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C21">
-        <v>40.9700549</v>
+        <v>29.4246002</v>
       </c>
       <c r="D21">
-        <v>-81.6965168</v>
+        <v>-98.49514050000001</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F21">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G21" s="2">
-        <v>45479</v>
+        <v>45484</v>
       </c>
       <c r="H21" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="K21">
-        <v>14.7</v>
+        <v>14.3</v>
       </c>
       <c r="L21">
-        <v>29.9</v>
+        <v>29.1</v>
       </c>
       <c r="M21">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="N21">
-        <v>15.1</v>
+        <v>14.5</v>
       </c>
       <c r="O21">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="P21">
-        <v>21.95</v>
+        <v>21.55</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>14.9</v>
       </c>
       <c r="R21">
-        <v>14.2</v>
+        <v>14.8</v>
       </c>
       <c r="S21">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="T21">
-        <v>20.85</v>
+        <v>22.1</v>
       </c>
       <c r="U21">
-        <v>72.7</v>
+        <v>72.75</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
       <c r="W21">
+        <v>72.75</v>
+      </c>
+      <c r="X21">
+        <v>15</v>
+      </c>
+      <c r="Y21">
+        <v>8</v>
+      </c>
+      <c r="Z21">
+        <v>72.75</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>45484</v>
+      </c>
+      <c r="AB21">
+        <v>3</v>
+      </c>
+      <c r="AC21">
+        <v>1.5</v>
+      </c>
+      <c r="AD21">
+        <v>-0.9500000000000028</v>
+      </c>
+      <c r="AE21">
+        <v>74.46666666666667</v>
+      </c>
+      <c r="AF21">
+        <v>0.7516666666666666</v>
+      </c>
+      <c r="AG21">
+        <v>0.7322222222222223</v>
+      </c>
+      <c r="AH21">
+        <v>0.7477777777777779</v>
+      </c>
+      <c r="AI21">
+        <v>0.7383333333333333</v>
+      </c>
+      <c r="AJ21">
+        <v>0.7683333333333333</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM21">
+        <v>11</v>
+      </c>
+      <c r="AN21">
+        <v>20</v>
+      </c>
+      <c r="AO21">
+        <v>8</v>
+      </c>
+      <c r="AP21">
+        <v>15</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22">
+        <v>40.9700549</v>
+      </c>
+      <c r="D22">
+        <v>-81.6965168</v>
+      </c>
+      <c r="E22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22">
+        <v>16</v>
+      </c>
+      <c r="G22" s="2">
+        <v>45479</v>
+      </c>
+      <c r="H22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>15.2</v>
+      </c>
+      <c r="K22">
+        <v>14.7</v>
+      </c>
+      <c r="L22">
+        <v>29.9</v>
+      </c>
+      <c r="M22">
+        <v>14.4</v>
+      </c>
+      <c r="N22">
+        <v>15.1</v>
+      </c>
+      <c r="O22">
+        <v>14.4</v>
+      </c>
+      <c r="P22">
+        <v>21.95</v>
+      </c>
+      <c r="Q22">
+        <v>14</v>
+      </c>
+      <c r="R22">
+        <v>14.2</v>
+      </c>
+      <c r="S22">
+        <v>13.5</v>
+      </c>
+      <c r="T22">
+        <v>20.85</v>
+      </c>
+      <c r="U22">
         <v>72.7</v>
-      </c>
-      <c r="X21">
-        <v>10</v>
-      </c>
-      <c r="Y21">
-        <v>72.7</v>
-      </c>
-      <c r="Z21" s="2">
-        <v>45479</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="A22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22">
-        <v>33.7489924</v>
-      </c>
-      <c r="D22">
-        <v>-84.39026440000001</v>
-      </c>
-      <c r="E22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22">
-        <v>23</v>
-      </c>
-      <c r="G22" s="2">
-        <v>45482</v>
-      </c>
-      <c r="H22" t="s">
-        <v>126</v>
-      </c>
-      <c r="I22">
-        <v>4</v>
-      </c>
-      <c r="J22">
-        <v>14.6</v>
-      </c>
-      <c r="K22">
-        <v>14.4</v>
-      </c>
-      <c r="L22">
-        <v>29</v>
-      </c>
-      <c r="M22">
-        <v>14.5</v>
-      </c>
-      <c r="N22">
-        <v>14.4</v>
-      </c>
-      <c r="O22">
-        <v>14.3</v>
-      </c>
-      <c r="P22">
-        <v>21.6</v>
-      </c>
-      <c r="Q22">
-        <v>14.6</v>
-      </c>
-      <c r="R22">
-        <v>13.2</v>
-      </c>
-      <c r="S22">
-        <v>15.4</v>
-      </c>
-      <c r="T22">
-        <v>21.6</v>
-      </c>
-      <c r="U22">
-        <v>72.2</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22">
-        <v>72.2</v>
+        <v>72.7</v>
       </c>
       <c r="X22">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y22">
-        <v>72.2</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>45482</v>
+        <v>20</v>
+      </c>
+      <c r="Z22">
+        <v>72.7</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>45479</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>72.7</v>
+      </c>
+      <c r="AF22">
+        <v>0.7474999999999999</v>
+      </c>
+      <c r="AG22">
+        <v>0.7316666666666667</v>
+      </c>
+      <c r="AH22">
+        <v>0.6950000000000001</v>
+      </c>
+      <c r="AI22">
+        <v>0.7</v>
+      </c>
+      <c r="AJ22">
+        <v>0.675</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM22">
+        <v>18</v>
+      </c>
+      <c r="AN22">
+        <v>21</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:47">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C23">
         <v>36.1622767</v>
@@ -2566,78 +4051,141 @@
         <v>-86.77429840000001</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F23">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G23" s="2">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="H23" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="K23">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="L23">
-        <v>28.4</v>
+        <v>29.2</v>
       </c>
       <c r="M23">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="N23">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="O23">
-        <v>13.9</v>
+        <v>14.3</v>
       </c>
       <c r="P23">
-        <v>21.35</v>
+        <v>21.55</v>
       </c>
       <c r="Q23">
-        <v>13.8</v>
+        <v>14.3</v>
       </c>
       <c r="R23">
-        <v>13.7</v>
+        <v>14.5</v>
       </c>
       <c r="S23">
-        <v>15.5</v>
+        <v>14.3</v>
       </c>
       <c r="T23">
-        <v>21.5</v>
+        <v>21.55</v>
       </c>
       <c r="U23">
-        <v>71.25</v>
+        <v>72.3</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
       <c r="W23">
-        <v>71.25</v>
+        <v>72.3</v>
       </c>
       <c r="X23">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y23">
-        <v>71.25</v>
-      </c>
-      <c r="Z23" s="2">
-        <v>45482</v>
+        <v>9</v>
+      </c>
+      <c r="Z23">
+        <v>72.3</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>45484</v>
+      </c>
+      <c r="AB23">
+        <v>3</v>
+      </c>
+      <c r="AC23">
+        <v>1.5</v>
+      </c>
+      <c r="AD23">
+        <v>1.174999999999997</v>
+      </c>
+      <c r="AE23">
+        <v>71.16666666666667</v>
+      </c>
+      <c r="AF23">
+        <v>0.7141666666666666</v>
+      </c>
+      <c r="AG23">
+        <v>0.7138888888888889</v>
+      </c>
+      <c r="AH23">
+        <v>0.7061111111111111</v>
+      </c>
+      <c r="AI23">
+        <v>0.6900000000000002</v>
+      </c>
+      <c r="AJ23">
+        <v>0.7316666666666667</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM23">
+        <v>21</v>
+      </c>
+      <c r="AN23">
+        <v>22</v>
+      </c>
+      <c r="AO23">
+        <v>15</v>
+      </c>
+      <c r="AP23">
+        <v>16</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:47">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C24">
         <v>34.0182252</v>
@@ -2646,318 +4194,555 @@
         <v>-117.9593061</v>
       </c>
       <c r="E24" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F24">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G24" s="2">
-        <v>45480</v>
+        <v>45483</v>
       </c>
       <c r="H24" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J24">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="K24">
         <v>14.8</v>
       </c>
       <c r="L24">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="M24">
-        <v>13.3</v>
+        <v>14.3</v>
       </c>
       <c r="N24">
-        <v>14.8</v>
+        <v>13.6</v>
       </c>
       <c r="O24">
-        <v>13.2</v>
+        <v>14.5</v>
       </c>
       <c r="P24">
-        <v>20.65</v>
+        <v>21.2</v>
       </c>
       <c r="Q24">
-        <v>14.7</v>
+        <v>14.1</v>
       </c>
       <c r="R24">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="S24">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="T24">
-        <v>21.7</v>
+        <v>21.85</v>
       </c>
       <c r="U24">
-        <v>71.05</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
       <c r="W24">
-        <v>71.05</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="X24">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Y24">
-        <v>71.05</v>
-      </c>
-      <c r="Z24" s="2">
-        <v>45480</v>
+        <v>12</v>
+      </c>
+      <c r="Z24">
+        <v>71.65000000000001</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>45483</v>
+      </c>
+      <c r="AB24">
+        <v>7</v>
+      </c>
+      <c r="AC24">
+        <v>2</v>
+      </c>
+      <c r="AD24">
+        <v>1.225000000000001</v>
+      </c>
+      <c r="AE24">
+        <v>67.57857142857142</v>
+      </c>
+      <c r="AF24">
+        <v>0.6660714285714284</v>
+      </c>
+      <c r="AG24">
+        <v>0.6695238095238095</v>
+      </c>
+      <c r="AH24">
+        <v>0.6950000000000001</v>
+      </c>
+      <c r="AI24">
+        <v>0.6864285714285714</v>
+      </c>
+      <c r="AJ24">
+        <v>0.7135714285714285</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM24">
+        <v>25</v>
+      </c>
+      <c r="AN24">
+        <v>23</v>
+      </c>
+      <c r="AO24">
+        <v>18</v>
+      </c>
+      <c r="AP24">
+        <v>17</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:47">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C25">
-        <v>44.3238384</v>
+        <v>33.4255117</v>
       </c>
       <c r="D25">
-        <v>-93.9585295</v>
+        <v>-111.940016</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="F25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G25" s="2">
-        <v>45482</v>
+        <v>45483</v>
       </c>
       <c r="H25" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25">
-        <v>13.6</v>
+        <v>14</v>
       </c>
       <c r="K25">
         <v>14.6</v>
       </c>
       <c r="L25">
-        <v>28.2</v>
+        <v>28.6</v>
       </c>
       <c r="M25">
-        <v>13.7</v>
+        <v>14.5</v>
       </c>
       <c r="N25">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="O25">
-        <v>13.8</v>
+        <v>12.8</v>
       </c>
       <c r="P25">
-        <v>20.55</v>
+        <v>20.4</v>
       </c>
       <c r="Q25">
-        <v>13.5</v>
+        <v>14.2</v>
       </c>
       <c r="R25">
-        <v>13.6</v>
+        <v>14.2</v>
       </c>
       <c r="S25">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="T25">
-        <v>20.3</v>
+        <v>21.7</v>
       </c>
       <c r="U25">
-        <v>69.05</v>
+        <v>70.7</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
       <c r="W25">
-        <v>69.05</v>
+        <v>70.7</v>
       </c>
       <c r="X25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y25">
-        <v>69.05</v>
-      </c>
-      <c r="Z25" s="2">
-        <v>45482</v>
+        <v>10</v>
+      </c>
+      <c r="Z25">
+        <v>70.7</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>45483</v>
+      </c>
+      <c r="AB25">
+        <v>4</v>
+      </c>
+      <c r="AC25">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AD25">
+        <v>1.733333333333334</v>
+      </c>
+      <c r="AE25">
+        <v>67.95</v>
+      </c>
+      <c r="AF25">
+        <v>0.675</v>
+      </c>
+      <c r="AG25">
+        <v>0.66125</v>
+      </c>
+      <c r="AH25">
+        <v>0.70375</v>
+      </c>
+      <c r="AI25">
+        <v>0.6975</v>
+      </c>
+      <c r="AJ25">
+        <v>0.71</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM25">
+        <v>24</v>
+      </c>
+      <c r="AN25">
+        <v>24</v>
+      </c>
+      <c r="AO25">
+        <v>17</v>
+      </c>
+      <c r="AP25">
+        <v>18</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>191</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:47">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C26">
-        <v>42.7656251</v>
+        <v>44.3238384</v>
       </c>
       <c r="D26">
-        <v>-71.4677032</v>
+        <v>-93.9585295</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="F26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26" s="2">
         <v>45482</v>
       </c>
       <c r="H26" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="K26">
-        <v>13.9</v>
+        <v>14.6</v>
       </c>
       <c r="L26">
-        <v>27.8</v>
+        <v>28.2</v>
       </c>
       <c r="M26">
         <v>13.7</v>
       </c>
       <c r="N26">
-        <v>13.1</v>
+        <v>13.6</v>
       </c>
       <c r="O26">
-        <v>13.2</v>
+        <v>13.8</v>
       </c>
       <c r="P26">
-        <v>20</v>
+        <v>20.55</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="R26">
-        <v>14.2</v>
+        <v>13.6</v>
       </c>
       <c r="S26">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="T26">
-        <v>20.85</v>
+        <v>20.3</v>
       </c>
       <c r="U26">
-        <v>68.65000000000001</v>
+        <v>69.05</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>68.65000000000001</v>
+        <v>69.05</v>
       </c>
       <c r="X26">
         <v>13</v>
       </c>
       <c r="Y26">
-        <v>68.65000000000001</v>
-      </c>
-      <c r="Z26" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z26">
+        <v>69.05</v>
+      </c>
+      <c r="AA26" s="2">
         <v>45482</v>
       </c>
+      <c r="AB26">
+        <v>2</v>
+      </c>
+      <c r="AC26">
+        <v>10</v>
+      </c>
+      <c r="AD26">
+        <v>3.049999999999997</v>
+      </c>
+      <c r="AE26">
+        <v>67.52500000000001</v>
+      </c>
+      <c r="AF26">
+        <v>0.68625</v>
+      </c>
+      <c r="AG26">
+        <v>0.6725</v>
+      </c>
+      <c r="AH26">
+        <v>0.6633333333333333</v>
+      </c>
+      <c r="AI26">
+        <v>0.6625</v>
+      </c>
+      <c r="AJ26">
+        <v>0.6625</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM26">
+        <v>26</v>
+      </c>
+      <c r="AN26">
+        <v>25</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>190</v>
+      </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:47">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="C27">
-        <v>33.4255117</v>
+        <v>42.7656251</v>
       </c>
       <c r="D27">
-        <v>-111.940016</v>
+        <v>-71.4677032</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="F27">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G27" s="2">
-        <v>45480</v>
+        <v>45484</v>
       </c>
       <c r="H27" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>13.4</v>
+        <v>14.2</v>
       </c>
       <c r="K27">
-        <v>14.4</v>
+        <v>13.8</v>
       </c>
       <c r="L27">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>12.5</v>
+        <v>13.7</v>
       </c>
       <c r="N27">
-        <v>14.5</v>
+        <v>13.6</v>
       </c>
       <c r="O27">
-        <v>12.6</v>
+        <v>13.8</v>
       </c>
       <c r="P27">
-        <v>19.8</v>
+        <v>20.55</v>
       </c>
       <c r="Q27">
+        <v>13.3</v>
+      </c>
+      <c r="R27">
         <v>14.1</v>
       </c>
-      <c r="R27">
-        <v>13.5</v>
-      </c>
       <c r="S27">
-        <v>13.9</v>
+        <v>13.2</v>
       </c>
       <c r="T27">
-        <v>20.75</v>
+        <v>20.3</v>
       </c>
       <c r="U27">
-        <v>68.34999999999999</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
       <c r="W27">
-        <v>68.34999999999999</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="X27">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y27">
-        <v>68.34999999999999</v>
-      </c>
-      <c r="Z27" s="2">
-        <v>45480</v>
+        <v>8</v>
+      </c>
+      <c r="Z27">
+        <v>68.84999999999999</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>45484</v>
+      </c>
+      <c r="AB27">
+        <v>4</v>
+      </c>
+      <c r="AC27">
+        <v>4</v>
+      </c>
+      <c r="AD27">
+        <v>2.816666666666665</v>
+      </c>
+      <c r="AE27">
+        <v>66.16249999999999</v>
+      </c>
+      <c r="AF27">
+        <v>0.67625</v>
+      </c>
+      <c r="AG27">
+        <v>0.6466666666666666</v>
+      </c>
+      <c r="AH27">
+        <v>0.6570833333333334</v>
+      </c>
+      <c r="AI27">
+        <v>0.6137499999999999</v>
+      </c>
+      <c r="AJ27">
+        <v>0.67125</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM27">
+        <v>28</v>
+      </c>
+      <c r="AN27">
+        <v>26</v>
+      </c>
+      <c r="AO27">
+        <v>19</v>
+      </c>
+      <c r="AP27">
+        <v>19</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>193</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:47">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C28">
         <v>37.9768525</v>
@@ -2966,7 +4751,7 @@
         <v>-122.0335624</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="F28">
         <v>18</v>
@@ -2975,7 +4760,7 @@
         <v>45480</v>
       </c>
       <c r="H28" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="I28">
         <v>5</v>
@@ -3026,18 +4811,81 @@
         <v>11</v>
       </c>
       <c r="Y28">
+        <v>11</v>
+      </c>
+      <c r="Z28">
         <v>68.09999999999999</v>
       </c>
-      <c r="Z28" s="2">
+      <c r="AA28" s="2">
         <v>45480</v>
       </c>
+      <c r="AB28">
+        <v>5</v>
+      </c>
+      <c r="AC28">
+        <v>2.25</v>
+      </c>
+      <c r="AD28">
+        <v>1.537499999999998</v>
+      </c>
+      <c r="AE28">
+        <v>64.72</v>
+      </c>
+      <c r="AF28">
+        <v>0.652</v>
+      </c>
+      <c r="AG28">
+        <v>0.6336666666666666</v>
+      </c>
+      <c r="AH28">
+        <v>0.6543333333333334</v>
+      </c>
+      <c r="AI28">
+        <v>0.643</v>
+      </c>
+      <c r="AJ28">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM28">
+        <v>30</v>
+      </c>
+      <c r="AN28">
+        <v>28</v>
+      </c>
+      <c r="AO28">
+        <v>21</v>
+      </c>
+      <c r="AP28">
+        <v>20</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>177</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>210</v>
+      </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:47">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C29">
         <v>41.395317</v>
@@ -3046,7 +4894,7 @@
         <v>-73.07244420000001</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -3055,7 +4903,7 @@
         <v>45472</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I29">
         <v>4</v>
@@ -3106,178 +4954,325 @@
         <v>3</v>
       </c>
       <c r="Y29">
+        <v>10</v>
+      </c>
+      <c r="Z29">
         <v>68.09999999999999</v>
       </c>
-      <c r="Z29" s="2">
+      <c r="AA29" s="2">
         <v>45472</v>
       </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="AF29">
+        <v>0.6925</v>
+      </c>
+      <c r="AG29">
+        <v>0.6633333333333333</v>
+      </c>
+      <c r="AH29">
+        <v>0.6833333333333333</v>
+      </c>
+      <c r="AI29">
+        <v>0.65</v>
+      </c>
+      <c r="AJ29">
+        <v>0.675</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM29">
+        <v>23</v>
+      </c>
+      <c r="AN29">
+        <v>28</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:47">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="C30">
-        <v>45.2710195</v>
+        <v>40.8679538</v>
       </c>
       <c r="D30">
-        <v>-93.2827625</v>
+        <v>-74.5601181</v>
       </c>
       <c r="E30" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="F30">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G30" s="2">
-        <v>45482</v>
+        <v>45472</v>
       </c>
       <c r="H30" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K30">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="L30">
-        <v>27.2</v>
+        <v>26.4</v>
       </c>
       <c r="M30">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="N30">
         <v>12.8</v>
       </c>
       <c r="O30">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="P30">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="Q30">
-        <v>12.9</v>
+        <v>13.5</v>
       </c>
       <c r="R30">
-        <v>14.3</v>
+        <v>13.3</v>
       </c>
       <c r="S30">
-        <v>12.7</v>
+        <v>13.4</v>
       </c>
       <c r="T30">
-        <v>19.95</v>
+        <v>20.1</v>
       </c>
       <c r="U30">
-        <v>66.65000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
       <c r="W30">
-        <v>66.65000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="X30">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Y30">
-        <v>66.65000000000001</v>
-      </c>
-      <c r="Z30" s="2">
-        <v>45482</v>
+        <v>10</v>
+      </c>
+      <c r="Z30">
+        <v>66.3</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>45472</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>66.3</v>
+      </c>
+      <c r="AF30">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="AG30">
+        <v>0.66</v>
+      </c>
+      <c r="AH30">
+        <v>0.67</v>
+      </c>
+      <c r="AI30">
+        <v>0.675</v>
+      </c>
+      <c r="AJ30">
+        <v>0.67</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM30">
+        <v>27</v>
+      </c>
+      <c r="AN30">
+        <v>29</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:47">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C31">
-        <v>40.8679538</v>
+        <v>45.2710195</v>
       </c>
       <c r="D31">
-        <v>-74.5601181</v>
+        <v>-93.2827625</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G31" s="2">
-        <v>45472</v>
+        <v>45484</v>
       </c>
       <c r="H31" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="K31">
-        <v>13.4</v>
+        <v>14.3</v>
       </c>
       <c r="L31">
-        <v>26.4</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="N31">
+        <v>13.8</v>
+      </c>
+      <c r="O31">
+        <v>13.3</v>
+      </c>
+      <c r="P31">
+        <v>20.1</v>
+      </c>
+      <c r="Q31">
+        <v>12.4</v>
+      </c>
+      <c r="R31">
+        <v>12.7</v>
+      </c>
+      <c r="S31">
         <v>12.8</v>
       </c>
-      <c r="O31">
-        <v>13.4</v>
-      </c>
-      <c r="P31">
-        <v>19.8</v>
-      </c>
-      <c r="Q31">
-        <v>13.5</v>
-      </c>
-      <c r="R31">
-        <v>13.3</v>
-      </c>
-      <c r="S31">
-        <v>13.4</v>
-      </c>
       <c r="T31">
-        <v>20.1</v>
+        <v>18.95</v>
       </c>
       <c r="U31">
-        <v>66.3</v>
+        <v>66.05</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
       <c r="W31">
-        <v>66.3</v>
+        <v>66.05</v>
       </c>
       <c r="X31">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Y31">
-        <v>66.3</v>
-      </c>
-      <c r="Z31" s="2">
-        <v>45472</v>
+        <v>15</v>
+      </c>
+      <c r="Z31">
+        <v>66.05</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>45484</v>
+      </c>
+      <c r="AB31">
+        <v>4</v>
+      </c>
+      <c r="AC31">
+        <v>2</v>
+      </c>
+      <c r="AD31">
+        <v>1.483333333333332</v>
+      </c>
+      <c r="AE31">
+        <v>64.10000000000001</v>
+      </c>
+      <c r="AF31">
+        <v>0.6487499999999999</v>
+      </c>
+      <c r="AG31">
+        <v>0.6375</v>
+      </c>
+      <c r="AH31">
+        <v>0.6341666666666668</v>
+      </c>
+      <c r="AI31">
+        <v>0.6224999999999999</v>
+      </c>
+      <c r="AJ31">
+        <v>0.61875</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM31">
+        <v>32</v>
+      </c>
+      <c r="AN31">
+        <v>30</v>
+      </c>
+      <c r="AO31">
+        <v>22</v>
+      </c>
+      <c r="AP31">
+        <v>21</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>197</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>189</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:47">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C32">
         <v>32.7174202</v>
@@ -3286,7 +5281,7 @@
         <v>-117.162772</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="F32">
         <v>18</v>
@@ -3295,7 +5290,7 @@
         <v>45480</v>
       </c>
       <c r="H32" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="I32">
         <v>4</v>
@@ -3346,258 +5341,489 @@
         <v>11</v>
       </c>
       <c r="Y32">
+        <v>4</v>
+      </c>
+      <c r="Z32">
         <v>65.05</v>
       </c>
-      <c r="Z32" s="2">
+      <c r="AA32" s="2">
         <v>45480</v>
       </c>
+      <c r="AB32">
+        <v>5</v>
+      </c>
+      <c r="AC32">
+        <v>2.25</v>
+      </c>
+      <c r="AD32">
+        <v>1.512499999999999</v>
+      </c>
+      <c r="AE32">
+        <v>61.4</v>
+      </c>
+      <c r="AF32">
+        <v>0.617</v>
+      </c>
+      <c r="AG32">
+        <v>0.5976666666666667</v>
+      </c>
+      <c r="AH32">
+        <v>0.6263333333333333</v>
+      </c>
+      <c r="AI32">
+        <v>0.619</v>
+      </c>
+      <c r="AJ32">
+        <v>0.639</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM32">
+        <v>34</v>
+      </c>
+      <c r="AN32">
+        <v>31</v>
+      </c>
+      <c r="AO32">
+        <v>24</v>
+      </c>
+      <c r="AP32">
+        <v>22</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>191</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>210</v>
+      </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:47">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="C33">
-        <v>47.6038321</v>
+        <v>46.2306739</v>
       </c>
       <c r="D33">
-        <v>-122.330062</v>
+        <v>-119.0921</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="F33">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G33" s="2">
-        <v>45482</v>
+        <v>45481</v>
       </c>
       <c r="H33" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="K33">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="M33">
-        <v>12.2</v>
+        <v>13.2</v>
       </c>
       <c r="N33">
+        <v>13.4</v>
+      </c>
+      <c r="O33">
         <v>13</v>
       </c>
-      <c r="O33">
-        <v>13.5</v>
-      </c>
       <c r="P33">
-        <v>19.35</v>
+        <v>19.8</v>
       </c>
       <c r="Q33">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="R33">
         <v>12.9</v>
       </c>
       <c r="S33">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="T33">
-        <v>19.45</v>
+        <v>18.9</v>
       </c>
       <c r="U33">
-        <v>64.8</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
       <c r="W33">
-        <v>64.8</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="X33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y33">
-        <v>64.8</v>
-      </c>
-      <c r="Z33" s="2">
-        <v>45482</v>
+        <v>10</v>
+      </c>
+      <c r="Z33">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>45481</v>
+      </c>
+      <c r="AB33">
+        <v>2</v>
+      </c>
+      <c r="AC33">
+        <v>2</v>
+      </c>
+      <c r="AD33">
+        <v>-0.3500000000000085</v>
+      </c>
+      <c r="AE33">
+        <v>64.77500000000001</v>
+      </c>
+      <c r="AF33">
+        <v>0.6587500000000001</v>
+      </c>
+      <c r="AG33">
+        <v>0.6491666666666667</v>
+      </c>
+      <c r="AH33">
+        <v>0.6316666666666666</v>
+      </c>
+      <c r="AI33">
+        <v>0.6050000000000001</v>
+      </c>
+      <c r="AJ33">
+        <v>0.6275000000000001</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM33">
+        <v>29</v>
+      </c>
+      <c r="AN33">
+        <v>32</v>
+      </c>
+      <c r="AO33">
+        <v>20</v>
+      </c>
+      <c r="AP33">
+        <v>23</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>195</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:47">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C34">
-        <v>46.2306739</v>
+        <v>40.85149705</v>
       </c>
       <c r="D34">
-        <v>-119.0921</v>
+        <v>-73.0994258107431</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="F34">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G34" s="2">
-        <v>45481</v>
+        <v>45472</v>
       </c>
       <c r="H34" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
+        <v>13.3</v>
+      </c>
+      <c r="K34">
+        <v>12.7</v>
+      </c>
+      <c r="L34">
+        <v>26</v>
+      </c>
+      <c r="M34">
+        <v>12.8</v>
+      </c>
+      <c r="N34">
+        <v>12.7</v>
+      </c>
+      <c r="O34">
         <v>12.9</v>
       </c>
-      <c r="K34">
-        <v>13</v>
-      </c>
-      <c r="L34">
-        <v>25.9</v>
-      </c>
-      <c r="M34">
-        <v>13.2</v>
-      </c>
-      <c r="N34">
-        <v>13.4</v>
-      </c>
-      <c r="O34">
-        <v>13</v>
-      </c>
       <c r="P34">
-        <v>19.8</v>
+        <v>19.2</v>
       </c>
       <c r="Q34">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="R34">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="S34">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="T34">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="U34">
-        <v>64.59999999999999</v>
+        <v>64.2</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
       <c r="W34">
-        <v>64.59999999999999</v>
+        <v>64.2</v>
       </c>
       <c r="X34">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Y34">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="Z34" s="2">
-        <v>45481</v>
+        <v>9</v>
+      </c>
+      <c r="Z34">
+        <v>64.2</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>45472</v>
+      </c>
+      <c r="AB34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>64.2</v>
+      </c>
+      <c r="AF34">
+        <v>0.65</v>
+      </c>
+      <c r="AG34">
+        <v>0.64</v>
+      </c>
+      <c r="AH34">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="AI34">
+        <v>0.625</v>
+      </c>
+      <c r="AJ34">
+        <v>0.62</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM34">
+        <v>31</v>
+      </c>
+      <c r="AN34">
+        <v>33</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:47">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="C35">
-        <v>40.85149705</v>
+        <v>47.6038321</v>
       </c>
       <c r="D35">
-        <v>-73.0994258107431</v>
+        <v>-122.330062</v>
       </c>
       <c r="E35" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G35" s="2">
-        <v>45472</v>
+        <v>45483</v>
       </c>
       <c r="H35" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>13.3</v>
+        <v>12.6</v>
       </c>
       <c r="K35">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="M35">
+        <v>13.7</v>
+      </c>
+      <c r="N35">
+        <v>12.5</v>
+      </c>
+      <c r="O35">
+        <v>11.7</v>
+      </c>
+      <c r="P35">
+        <v>18.95</v>
+      </c>
+      <c r="Q35">
+        <v>12.9</v>
+      </c>
+      <c r="R35">
+        <v>13.2</v>
+      </c>
+      <c r="S35">
         <v>12.8</v>
       </c>
-      <c r="N35">
-        <v>12.7</v>
-      </c>
-      <c r="O35">
-        <v>12.9</v>
-      </c>
-      <c r="P35">
-        <v>19.2</v>
-      </c>
-      <c r="Q35">
-        <v>12.5</v>
-      </c>
-      <c r="R35">
-        <v>13.1</v>
-      </c>
-      <c r="S35">
-        <v>12.4</v>
-      </c>
       <c r="T35">
-        <v>19</v>
+        <v>19.45</v>
       </c>
       <c r="U35">
-        <v>64.2</v>
+        <v>63.9</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35">
-        <v>64.2</v>
+        <v>63.9</v>
       </c>
       <c r="X35">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Y35">
-        <v>64.2</v>
-      </c>
-      <c r="Z35" s="2">
-        <v>45472</v>
+        <v>15</v>
+      </c>
+      <c r="Z35">
+        <v>63.9</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>45483</v>
+      </c>
+      <c r="AB35">
+        <v>5</v>
+      </c>
+      <c r="AC35">
+        <v>1.25</v>
+      </c>
+      <c r="AD35">
+        <v>0.5625</v>
+      </c>
+      <c r="AE35">
+        <v>63.02999999999999</v>
+      </c>
+      <c r="AF35">
+        <v>0.6345000000000001</v>
+      </c>
+      <c r="AG35">
+        <v>0.6123333333333334</v>
+      </c>
+      <c r="AH35">
+        <v>0.6426666666666667</v>
+      </c>
+      <c r="AI35">
+        <v>0.635</v>
+      </c>
+      <c r="AJ35">
+        <v>0.6479999999999999</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM35">
+        <v>33</v>
+      </c>
+      <c r="AN35">
+        <v>34</v>
+      </c>
+      <c r="AO35">
+        <v>23</v>
+      </c>
+      <c r="AP35">
+        <v>24</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>198</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>195</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>191</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:47">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C36">
         <v>42.5006243</v>
@@ -3606,167 +5832,278 @@
         <v>-90.6647985</v>
       </c>
       <c r="E36" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="F36">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G36" s="2">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="H36" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K36">
         <v>12.5</v>
       </c>
       <c r="L36">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="M36">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="N36">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="O36">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="P36">
-        <v>18.55</v>
+        <v>18.65</v>
       </c>
       <c r="Q36">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="R36">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="S36">
-        <v>11.1</v>
+        <v>11.9</v>
       </c>
       <c r="T36">
-        <v>17.95</v>
+        <v>18</v>
       </c>
       <c r="U36">
-        <v>61.1</v>
+        <v>61.05</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
       <c r="W36">
-        <v>61.1</v>
+        <v>61.05</v>
       </c>
       <c r="X36">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y36">
-        <v>61.1</v>
-      </c>
-      <c r="Z36" s="2">
-        <v>45482</v>
+        <v>10</v>
+      </c>
+      <c r="Z36">
+        <v>61.05</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>45484</v>
+      </c>
+      <c r="AB36">
+        <v>7</v>
+      </c>
+      <c r="AC36">
+        <v>2</v>
+      </c>
+      <c r="AD36">
+        <v>1.016666666666666</v>
+      </c>
+      <c r="AE36">
+        <v>58.82142857142857</v>
+      </c>
+      <c r="AF36">
+        <v>0.5903571428571429</v>
+      </c>
+      <c r="AG36">
+        <v>0.5864285714285715</v>
+      </c>
+      <c r="AH36">
+        <v>0.5871428571428571</v>
+      </c>
+      <c r="AI36">
+        <v>0.5785714285714285</v>
+      </c>
+      <c r="AJ36">
+        <v>0.5928571428571429</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM36">
+        <v>36</v>
+      </c>
+      <c r="AN36">
+        <v>35</v>
+      </c>
+      <c r="AO36">
+        <v>26</v>
+      </c>
+      <c r="AP36">
+        <v>25</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>203</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>192</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>190</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:47">
       <c r="A37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37">
-        <v>33.870413</v>
-      </c>
-      <c r="D37">
-        <v>-117.9962165</v>
+        <v>82</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="F37">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G37" s="2">
-        <v>45480</v>
+        <v>45483</v>
       </c>
       <c r="H37" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>13.2</v>
+        <v>11.8</v>
       </c>
       <c r="K37">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="L37">
-        <v>25.1</v>
+        <v>23.8</v>
       </c>
       <c r="M37">
-        <v>10.6</v>
+        <v>12.9</v>
       </c>
       <c r="N37">
         <v>12</v>
       </c>
       <c r="O37">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="P37">
-        <v>16.9</v>
+        <v>18.25</v>
       </c>
       <c r="Q37">
-        <v>10.8</v>
+        <v>12.8</v>
       </c>
       <c r="R37">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="S37">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
       <c r="T37">
-        <v>17.1</v>
+        <v>18.7</v>
       </c>
       <c r="U37">
-        <v>59.1</v>
+        <v>60.75</v>
       </c>
       <c r="V37">
         <v>0</v>
       </c>
       <c r="W37">
-        <v>59.1</v>
+        <v>60.75</v>
       </c>
       <c r="X37">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Y37">
-        <v>59.1</v>
-      </c>
-      <c r="Z37" s="2">
-        <v>45480</v>
+        <v>9</v>
+      </c>
+      <c r="Z37">
+        <v>60.75</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>45483</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <v>60.75</v>
+      </c>
+      <c r="AF37">
+        <v>0.595</v>
+      </c>
+      <c r="AG37">
+        <v>0.6083333333333333</v>
+      </c>
+      <c r="AH37">
+        <v>0.6233333333333333</v>
+      </c>
+      <c r="AI37">
+        <v>0.64</v>
+      </c>
+      <c r="AJ37">
+        <v>0.605</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM37">
+        <v>35</v>
+      </c>
+      <c r="AN37">
+        <v>36</v>
+      </c>
+      <c r="AO37">
+        <v>25</v>
+      </c>
+      <c r="AP37">
+        <v>26</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>192</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:47">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C38">
-        <v>35.3738712</v>
+        <v>33.870413</v>
       </c>
       <c r="D38">
-        <v>-119.019463</v>
+        <v>-117.9962165</v>
       </c>
       <c r="E38" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="F38">
         <v>18</v>
@@ -3775,441 +6112,860 @@
         <v>45480</v>
       </c>
       <c r="H38" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J38">
+        <v>13.2</v>
+      </c>
+      <c r="K38">
+        <v>11.9</v>
+      </c>
+      <c r="L38">
+        <v>25.1</v>
+      </c>
+      <c r="M38">
+        <v>10.6</v>
+      </c>
+      <c r="N38">
+        <v>12</v>
+      </c>
+      <c r="O38">
+        <v>11.2</v>
+      </c>
+      <c r="P38">
+        <v>16.9</v>
+      </c>
+      <c r="Q38">
+        <v>10.8</v>
+      </c>
+      <c r="R38">
         <v>11.8</v>
       </c>
-      <c r="K38">
+      <c r="S38">
         <v>11.6</v>
       </c>
-      <c r="L38">
-        <v>23.4</v>
-      </c>
-      <c r="M38">
-        <v>11.1</v>
-      </c>
-      <c r="N38">
-        <v>12.4</v>
-      </c>
-      <c r="O38">
-        <v>11</v>
-      </c>
-      <c r="P38">
-        <v>17.25</v>
-      </c>
-      <c r="Q38">
-        <v>11.3</v>
-      </c>
-      <c r="R38">
-        <v>12.4</v>
-      </c>
-      <c r="S38">
-        <v>11.5</v>
-      </c>
       <c r="T38">
-        <v>17.6</v>
+        <v>17.1</v>
       </c>
       <c r="U38">
-        <v>58.25</v>
+        <v>59.1</v>
       </c>
       <c r="V38">
         <v>0</v>
       </c>
       <c r="W38">
-        <v>58.25</v>
+        <v>59.1</v>
       </c>
       <c r="X38">
         <v>11</v>
       </c>
       <c r="Y38">
+        <v>7</v>
+      </c>
+      <c r="Z38">
+        <v>59.1</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>45480</v>
+      </c>
+      <c r="AB38">
+        <v>5</v>
+      </c>
+      <c r="AC38">
+        <v>2.25</v>
+      </c>
+      <c r="AD38">
+        <v>1.775</v>
+      </c>
+      <c r="AE38">
+        <v>53.98</v>
+      </c>
+      <c r="AF38">
+        <v>0.547</v>
+      </c>
+      <c r="AG38">
+        <v>0.5399999999999999</v>
+      </c>
+      <c r="AH38">
+        <v>0.53</v>
+      </c>
+      <c r="AI38">
+        <v>0.5359999999999999</v>
+      </c>
+      <c r="AJ38">
+        <v>0.54</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM38">
+        <v>38</v>
+      </c>
+      <c r="AN38">
+        <v>37</v>
+      </c>
+      <c r="AO38">
+        <v>28</v>
+      </c>
+      <c r="AP38">
+        <v>27</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>204</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>205</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:47">
+      <c r="A39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39">
+        <v>35.3738712</v>
+      </c>
+      <c r="D39">
+        <v>-119.019463</v>
+      </c>
+      <c r="E39" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39">
+        <v>18</v>
+      </c>
+      <c r="G39" s="2">
+        <v>45480</v>
+      </c>
+      <c r="H39" t="s">
+        <v>158</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>11.8</v>
+      </c>
+      <c r="K39">
+        <v>11.6</v>
+      </c>
+      <c r="L39">
+        <v>23.4</v>
+      </c>
+      <c r="M39">
+        <v>11.1</v>
+      </c>
+      <c r="N39">
+        <v>12.4</v>
+      </c>
+      <c r="O39">
+        <v>11</v>
+      </c>
+      <c r="P39">
+        <v>17.25</v>
+      </c>
+      <c r="Q39">
+        <v>11.3</v>
+      </c>
+      <c r="R39">
+        <v>12.4</v>
+      </c>
+      <c r="S39">
+        <v>11.5</v>
+      </c>
+      <c r="T39">
+        <v>17.6</v>
+      </c>
+      <c r="U39">
         <v>58.25</v>
-      </c>
-      <c r="Z38" s="2">
-        <v>45480</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26">
-      <c r="A39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39">
-        <v>34.1065404</v>
-      </c>
-      <c r="D39">
-        <v>-117.8069361</v>
-      </c>
-      <c r="E39" t="s">
-        <v>125</v>
-      </c>
-      <c r="F39">
-        <v>14</v>
-      </c>
-      <c r="G39" s="2">
-        <v>45479</v>
-      </c>
-      <c r="H39" t="s">
-        <v>136</v>
-      </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
-      <c r="J39">
-        <v>11.5</v>
-      </c>
-      <c r="K39">
-        <v>11.4</v>
-      </c>
-      <c r="L39">
-        <v>22.9</v>
-      </c>
-      <c r="M39">
-        <v>11</v>
-      </c>
-      <c r="N39">
-        <v>10.7</v>
-      </c>
-      <c r="O39">
-        <v>10.5</v>
-      </c>
-      <c r="P39">
-        <v>16.1</v>
-      </c>
-      <c r="Q39">
-        <v>11.2</v>
-      </c>
-      <c r="R39">
-        <v>11.6</v>
-      </c>
-      <c r="S39">
-        <v>11.1</v>
-      </c>
-      <c r="T39">
-        <v>16.95</v>
-      </c>
-      <c r="U39">
-        <v>55.95</v>
       </c>
       <c r="V39">
         <v>0</v>
       </c>
       <c r="W39">
+        <v>58.25</v>
+      </c>
+      <c r="X39">
+        <v>11</v>
+      </c>
+      <c r="Y39">
+        <v>12</v>
+      </c>
+      <c r="Z39">
+        <v>58.25</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>45480</v>
+      </c>
+      <c r="AB39">
+        <v>2</v>
+      </c>
+      <c r="AC39">
+        <v>1</v>
+      </c>
+      <c r="AD39">
+        <v>1.100000000000001</v>
+      </c>
+      <c r="AE39">
+        <v>57.7</v>
+      </c>
+      <c r="AF39">
+        <v>0.58</v>
+      </c>
+      <c r="AG39">
+        <v>0.5683333333333334</v>
+      </c>
+      <c r="AH39">
+        <v>0.5816666666666668</v>
+      </c>
+      <c r="AI39">
+        <v>0.575</v>
+      </c>
+      <c r="AJ39">
+        <v>0.575</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM39">
+        <v>37</v>
+      </c>
+      <c r="AN39">
+        <v>38</v>
+      </c>
+      <c r="AO39">
+        <v>27</v>
+      </c>
+      <c r="AP39">
+        <v>28</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>205</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47">
+      <c r="A40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40">
+        <v>34.1065404</v>
+      </c>
+      <c r="D40">
+        <v>-117.8069361</v>
+      </c>
+      <c r="E40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40">
+        <v>14</v>
+      </c>
+      <c r="G40" s="2">
+        <v>45479</v>
+      </c>
+      <c r="H40" t="s">
+        <v>160</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>11.5</v>
+      </c>
+      <c r="K40">
+        <v>11.4</v>
+      </c>
+      <c r="L40">
+        <v>22.9</v>
+      </c>
+      <c r="M40">
+        <v>11</v>
+      </c>
+      <c r="N40">
+        <v>10.7</v>
+      </c>
+      <c r="O40">
+        <v>10.5</v>
+      </c>
+      <c r="P40">
+        <v>16.1</v>
+      </c>
+      <c r="Q40">
+        <v>11.2</v>
+      </c>
+      <c r="R40">
+        <v>11.6</v>
+      </c>
+      <c r="S40">
+        <v>11.1</v>
+      </c>
+      <c r="T40">
+        <v>16.95</v>
+      </c>
+      <c r="U40">
         <v>55.95</v>
-      </c>
-      <c r="X39">
-        <v>10</v>
-      </c>
-      <c r="Y39">
-        <v>55.95</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>45479</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26">
-      <c r="A40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40">
-        <v>41.3556187</v>
-      </c>
-      <c r="D40">
-        <v>-72.0997804</v>
-      </c>
-      <c r="E40" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40">
-        <v>5</v>
-      </c>
-      <c r="G40" s="2">
-        <v>45472</v>
-      </c>
-      <c r="H40" t="s">
-        <v>133</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>11.1</v>
-      </c>
-      <c r="K40">
-        <v>11.2</v>
-      </c>
-      <c r="L40">
-        <v>22.3</v>
-      </c>
-      <c r="M40">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="N40">
-        <v>12.4</v>
-      </c>
-      <c r="O40">
-        <v>10.9</v>
-      </c>
-      <c r="P40">
-        <v>16.05</v>
-      </c>
-      <c r="Q40">
-        <v>8.9</v>
-      </c>
-      <c r="R40">
-        <v>11.1</v>
-      </c>
-      <c r="S40">
-        <v>10</v>
-      </c>
-      <c r="T40">
-        <v>15</v>
-      </c>
-      <c r="U40">
-        <v>53.35</v>
       </c>
       <c r="V40">
         <v>0</v>
       </c>
       <c r="W40">
+        <v>55.95</v>
+      </c>
+      <c r="X40">
+        <v>10</v>
+      </c>
+      <c r="Y40">
+        <v>6</v>
+      </c>
+      <c r="Z40">
+        <v>55.95</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>45479</v>
+      </c>
+      <c r="AB40">
+        <v>4</v>
+      </c>
+      <c r="AC40">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="AD40">
+        <v>2.033333333333334</v>
+      </c>
+      <c r="AE40">
+        <v>51.71249999999999</v>
+      </c>
+      <c r="AF40">
+        <v>0.51625</v>
+      </c>
+      <c r="AG40">
+        <v>0.5045833333333334</v>
+      </c>
+      <c r="AH40">
+        <v>0.5308333333333334</v>
+      </c>
+      <c r="AI40">
+        <v>0.5025000000000001</v>
+      </c>
+      <c r="AJ40">
+        <v>0.56625</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM40">
+        <v>40</v>
+      </c>
+      <c r="AN40">
+        <v>39</v>
+      </c>
+      <c r="AO40">
+        <v>30</v>
+      </c>
+      <c r="AP40">
+        <v>29</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>207</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47">
+      <c r="A41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41">
+        <v>41.3556187</v>
+      </c>
+      <c r="D41">
+        <v>-72.0997804</v>
+      </c>
+      <c r="E41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" s="2">
+        <v>45472</v>
+      </c>
+      <c r="H41" t="s">
+        <v>153</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>11.1</v>
+      </c>
+      <c r="K41">
+        <v>11.2</v>
+      </c>
+      <c r="L41">
+        <v>22.3</v>
+      </c>
+      <c r="M41">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="N41">
+        <v>12.4</v>
+      </c>
+      <c r="O41">
+        <v>10.9</v>
+      </c>
+      <c r="P41">
+        <v>16.05</v>
+      </c>
+      <c r="Q41">
+        <v>8.9</v>
+      </c>
+      <c r="R41">
+        <v>11.1</v>
+      </c>
+      <c r="S41">
+        <v>10</v>
+      </c>
+      <c r="T41">
+        <v>15</v>
+      </c>
+      <c r="U41">
         <v>53.35</v>
-      </c>
-      <c r="X40">
-        <v>3</v>
-      </c>
-      <c r="Y40">
-        <v>53.35</v>
-      </c>
-      <c r="Z40" s="2">
-        <v>45472</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26">
-      <c r="A41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41">
-        <v>37.9768525</v>
-      </c>
-      <c r="D41">
-        <v>-122.0335624</v>
-      </c>
-      <c r="E41" t="s">
-        <v>125</v>
-      </c>
-      <c r="F41">
-        <v>18</v>
-      </c>
-      <c r="G41" s="2">
-        <v>45480</v>
-      </c>
-      <c r="H41" t="s">
-        <v>129</v>
-      </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
-      <c r="J41">
-        <v>11</v>
-      </c>
-      <c r="K41">
-        <v>10.4</v>
-      </c>
-      <c r="L41">
-        <v>21.4</v>
-      </c>
-      <c r="M41">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="N41">
-        <v>11.3</v>
-      </c>
-      <c r="O41">
-        <v>10</v>
-      </c>
-      <c r="P41">
-        <v>15.3</v>
-      </c>
-      <c r="Q41">
-        <v>10.2</v>
-      </c>
-      <c r="R41">
-        <v>10.7</v>
-      </c>
-      <c r="S41">
-        <v>10.2</v>
-      </c>
-      <c r="T41">
-        <v>15.55</v>
-      </c>
-      <c r="U41">
-        <v>52.25</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
       <c r="W41">
+        <v>53.35</v>
+      </c>
+      <c r="X41">
+        <v>3</v>
+      </c>
+      <c r="Y41">
+        <v>11</v>
+      </c>
+      <c r="Z41">
+        <v>53.35</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>45472</v>
+      </c>
+      <c r="AB41">
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <v>53.35</v>
+      </c>
+      <c r="AF41">
+        <v>0.5575</v>
+      </c>
+      <c r="AG41">
+        <v>0.535</v>
+      </c>
+      <c r="AH41">
+        <v>0.5</v>
+      </c>
+      <c r="AI41">
+        <v>0.445</v>
+      </c>
+      <c r="AJ41">
+        <v>0.5</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM41">
+        <v>39</v>
+      </c>
+      <c r="AN41">
+        <v>40</v>
+      </c>
+      <c r="AO41">
+        <v>29</v>
+      </c>
+      <c r="AP41">
+        <v>30</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>207</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>199</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47">
+      <c r="A42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42">
+        <v>37.9768525</v>
+      </c>
+      <c r="D42">
+        <v>-122.0335624</v>
+      </c>
+      <c r="E42" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42">
+        <v>18</v>
+      </c>
+      <c r="G42" s="2">
+        <v>45480</v>
+      </c>
+      <c r="H42" t="s">
+        <v>158</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>11</v>
+      </c>
+      <c r="K42">
+        <v>10.4</v>
+      </c>
+      <c r="L42">
+        <v>21.4</v>
+      </c>
+      <c r="M42">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="N42">
+        <v>11.3</v>
+      </c>
+      <c r="O42">
+        <v>10</v>
+      </c>
+      <c r="P42">
+        <v>15.3</v>
+      </c>
+      <c r="Q42">
+        <v>10.2</v>
+      </c>
+      <c r="R42">
+        <v>10.7</v>
+      </c>
+      <c r="S42">
+        <v>10.2</v>
+      </c>
+      <c r="T42">
+        <v>15.55</v>
+      </c>
+      <c r="U42">
         <v>52.25</v>
       </c>
-      <c r="X41">
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>52.25</v>
+      </c>
+      <c r="X42">
         <v>11</v>
       </c>
-      <c r="Y41">
+      <c r="Y42">
+        <v>11</v>
+      </c>
+      <c r="Z42">
         <v>52.25</v>
       </c>
-      <c r="Z41" s="2">
+      <c r="AA42" s="2">
         <v>45480</v>
       </c>
+      <c r="AB42">
+        <v>5</v>
+      </c>
+      <c r="AC42">
+        <v>2.25</v>
+      </c>
+      <c r="AD42">
+        <v>1.387499999999999</v>
+      </c>
+      <c r="AE42">
+        <v>48.75</v>
+      </c>
+      <c r="AF42">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="AG42">
+        <v>0.482</v>
+      </c>
+      <c r="AH42">
+        <v>0.4803333333333333</v>
+      </c>
+      <c r="AI42">
+        <v>0.4779999999999999</v>
+      </c>
+      <c r="AJ42">
+        <v>0.485</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM42">
+        <v>41</v>
+      </c>
+      <c r="AN42">
+        <v>41</v>
+      </c>
+      <c r="AO42">
+        <v>31</v>
+      </c>
+      <c r="AP42">
+        <v>31</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>200</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>211</v>
+      </c>
     </row>
-    <row r="42" spans="1:26">
-      <c r="A42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42">
+    <row r="43" spans="1:47">
+      <c r="A43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43">
         <v>39.9622601</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>-83.00070650000001</v>
       </c>
+      <c r="Y43">
+        <v>14</v>
+      </c>
     </row>
-    <row r="43" spans="1:26">
-      <c r="A43" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43">
+    <row r="44" spans="1:47">
+      <c r="A44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44">
         <v>30.2711286</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <v>-97.74369950000001</v>
       </c>
+      <c r="Y44">
+        <v>7</v>
+      </c>
     </row>
-    <row r="44" spans="1:26">
-      <c r="A44" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="45" spans="1:47">
+      <c r="A45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45">
+        <v>32.7762719</v>
+      </c>
+      <c r="D45">
+        <v>-96.7968559</v>
+      </c>
+      <c r="Y45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:47">
+      <c r="A46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46">
+        <v>27.6886419</v>
+      </c>
+      <c r="D46">
+        <v>-82.5723193</v>
+      </c>
+      <c r="Y46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:47">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47">
+        <v>39.8014709</v>
+      </c>
+      <c r="D47">
+        <v>-74.968553</v>
+      </c>
+      <c r="Y47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:47">
+      <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48">
+        <v>45.403271</v>
+      </c>
+      <c r="D48">
+        <v>-71.889038</v>
+      </c>
+      <c r="Y48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49">
+        <v>42.1615601</v>
+      </c>
+      <c r="D49">
+        <v>-76.8426327</v>
+      </c>
+      <c r="Y49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
         <v>114</v>
       </c>
-      <c r="C44">
-        <v>32.7762719</v>
-      </c>
-      <c r="D44">
-        <v>-96.7968559</v>
+      <c r="C50">
+        <v>40.3496953</v>
+      </c>
+      <c r="D50">
+        <v>-74.6597376</v>
+      </c>
+      <c r="Y50">
+        <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
-      <c r="A45" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45">
-        <v>27.6886419</v>
-      </c>
-      <c r="D45">
-        <v>-82.5723193</v>
+    <row r="51" spans="1:25">
+      <c r="A51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51">
+        <v>40.7596198</v>
+      </c>
+      <c r="D51">
+        <v>-111.886797</v>
+      </c>
+      <c r="Y51">
+        <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
-      <c r="A46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46">
-        <v>39.8014709</v>
-      </c>
-      <c r="D46">
-        <v>-74.968553</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26">
-      <c r="A47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47">
-        <v>45.403271</v>
-      </c>
-      <c r="D47">
-        <v>-71.889038</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26">
-      <c r="A48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48">
-        <v>42.1615601</v>
-      </c>
-      <c r="D48">
-        <v>-76.8426327</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49">
-        <v>40.3496953</v>
-      </c>
-      <c r="D49">
-        <v>-74.6597376</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50">
-        <v>40.7596198</v>
-      </c>
-      <c r="D50">
-        <v>-111.886797</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C51">
+    <row r="52" spans="1:25">
+      <c r="A52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52">
         <v>43.157285</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>-77.61521399999999</v>
+      </c>
+      <c r="Y52">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
